--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -575,7 +575,7 @@
         <v>45685.38047453704</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45177</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
         <v>44262</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>45475.67303240741</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>45062</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45254</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44245</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>44728</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1589,14 +1589,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 27636-2023</t>
+          <t>A 38039-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45097</v>
+        <v>44811</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1652,41 +1652,41 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 27636-2023 artfynd.xlsx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 38039-2022 artfynd.xlsx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 27636-2023 karta.png", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 38039-2022 karta.png", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 27636-2023 FSC-klagomål.docx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 38039-2022 FSC-klagomål.docx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 27636-2023 FSC-klagomål mail.docx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 38039-2022 FSC-klagomål mail.docx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 27636-2023 tillsynsbegäran.docx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 38039-2022 tillsynsbegäran.docx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 27636-2023 tillsynsbegäran mail.docx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 38039-2022 tillsynsbegäran mail.docx", "A 38039-2022")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 38039-2022</t>
+          <t>A 27636-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44811</v>
+        <v>45097</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1742,27 +1742,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 38039-2022 artfynd.xlsx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 27636-2023 artfynd.xlsx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 38039-2022 karta.png", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 27636-2023 karta.png", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 38039-2022 FSC-klagomål.docx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 27636-2023 FSC-klagomål.docx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 38039-2022 FSC-klagomål mail.docx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 27636-2023 FSC-klagomål mail.docx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 38039-2022 tillsynsbegäran.docx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 27636-2023 tillsynsbegäran.docx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 38039-2022 tillsynsbegäran mail.docx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 27636-2023 tillsynsbegäran mail.docx", "A 27636-2023")</f>
         <v/>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
         <v>45912.40814814815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>45551</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>45999.55524305555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>45616.62196759259</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2226,14 +2226,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 2864-2026</t>
+          <t>A 35242-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>46038</v>
+        <v>45530.55440972222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2246,22 +2246,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
         <v>2</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2273,236 +2273,236 @@
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>3</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Ryl
+Grönpyrola
+Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 35242-2024 artfynd.xlsx", "A 35242-2024")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 35242-2024 karta.png", "A 35242-2024")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 35242-2024 FSC-klagomål.docx", "A 35242-2024")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 35242-2024 FSC-klagomål mail.docx", "A 35242-2024")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 35242-2024 tillsynsbegäran.docx", "A 35242-2024")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 35242-2024 tillsynsbegäran mail.docx", "A 35242-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 2864-2026</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>46038</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Mindre märgborre
 Blåsippa</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 2864-2026 artfynd.xlsx", "A 2864-2026")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 2864-2026 karta.png", "A 2864-2026")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 2864-2026 FSC-klagomål.docx", "A 2864-2026")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 2864-2026 FSC-klagomål mail.docx", "A 2864-2026")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 2864-2026 tillsynsbegäran.docx", "A 2864-2026")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 2864-2026 tillsynsbegäran mail.docx", "A 2864-2026")</f>
         <v/>
       </c>
-      <c r="Z19">
+      <c r="Z20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 2864-2026 prioriterade fågelarter.docx", "A 2864-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>A 61963-2025</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B21" s="1" t="n">
         <v>46003</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="C21" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>KALMAR LÄN</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>MÖRBYLÅNGA</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G21" t="n">
         <v>1.1</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H21" t="n">
         <v>2</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>3</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Mindre märgborre
 Blåsippa</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 61963-2025 artfynd.xlsx", "A 61963-2025")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 61963-2025 karta.png", "A 61963-2025")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 61963-2025 FSC-klagomål.docx", "A 61963-2025")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 61963-2025 FSC-klagomål mail.docx", "A 61963-2025")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 61963-2025 tillsynsbegäran.docx", "A 61963-2025")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 61963-2025 tillsynsbegäran mail.docx", "A 61963-2025")</f>
         <v/>
       </c>
-      <c r="Z20">
+      <c r="Z21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 61963-2025 prioriterade fågelarter.docx", "A 61963-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 35242-2024</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45530.55440972222</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Ryl
-Grönpyrola
-Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 35242-2024 artfynd.xlsx", "A 35242-2024")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 35242-2024 karta.png", "A 35242-2024")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 35242-2024 FSC-klagomål.docx", "A 35242-2024")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 35242-2024 FSC-klagomål mail.docx", "A 35242-2024")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 35242-2024 tillsynsbegäran.docx", "A 35242-2024")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 35242-2024 tillsynsbegäran mail.docx", "A 35242-2024")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 15600-2025</t>
+          <t>A 62231-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45747</v>
+        <v>45267</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2515,13 +2515,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2550,45 +2550,45 @@
       <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Murgröna
-Scharlakansvårskål agg.</t>
+Blåsippa</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 15600-2025 artfynd.xlsx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 62231-2023 artfynd.xlsx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 15600-2025 karta.png", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 62231-2023 karta.png", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 15600-2025 FSC-klagomål.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 62231-2023 FSC-klagomål.docx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 15600-2025 FSC-klagomål mail.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 62231-2023 FSC-klagomål mail.docx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 15600-2025 tillsynsbegäran.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 62231-2023 tillsynsbegäran.docx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 15600-2025 tillsynsbegäran mail.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 62231-2023 tillsynsbegäran mail.docx", "A 62231-2023")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 62231-2023</t>
+          <t>A 40361-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45267</v>
+        <v>45169</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2601,16 +2601,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2619,62 +2619,62 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>2</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Murgröna
-Blåsippa</t>
+          <t>Lundalm
+Ängsskära</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 62231-2023 artfynd.xlsx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 40361-2023 artfynd.xlsx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 62231-2023 karta.png", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 40361-2023 karta.png", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 62231-2023 FSC-klagomål.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 40361-2023 FSC-klagomål.docx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 62231-2023 FSC-klagomål mail.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 40361-2023 FSC-klagomål mail.docx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 62231-2023 tillsynsbegäran.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 40361-2023 tillsynsbegäran.docx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 62231-2023 tillsynsbegäran mail.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 40361-2023 tillsynsbegäran mail.docx", "A 40361-2023")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 40361-2023</t>
+          <t>A 15600-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45169</v>
+        <v>45747</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2693,10 +2693,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2705,48 +2705,48 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>2</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Lundalm
-Ängsskära</t>
+          <t>Murgröna
+Scharlakansvårskål agg.</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 40361-2023 artfynd.xlsx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 15600-2025 artfynd.xlsx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 40361-2023 karta.png", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 15600-2025 karta.png", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 40361-2023 FSC-klagomål.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 15600-2025 FSC-klagomål.docx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 40361-2023 FSC-klagomål mail.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 15600-2025 FSC-klagomål mail.docx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 40361-2023 tillsynsbegäran.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 15600-2025 tillsynsbegäran.docx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 40361-2023 tillsynsbegäran mail.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 15600-2025 tillsynsbegäran mail.docx", "A 15600-2025")</f>
         <v/>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
         <v>44470</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44460</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2923,14 +2923,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 43702-2025</t>
+          <t>A 24698-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45912.40270833333</v>
+        <v>45084</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2981,41 +2981,41 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43702-2025 artfynd.xlsx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 24698-2023 artfynd.xlsx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43702-2025 karta.png", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 24698-2023 karta.png", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43702-2025 FSC-klagomål.docx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 24698-2023 FSC-klagomål.docx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43702-2025 FSC-klagomål mail.docx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 24698-2023 FSC-klagomål mail.docx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43702-2025 tillsynsbegäran.docx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 24698-2023 tillsynsbegäran.docx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43702-2025 tillsynsbegäran mail.docx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 24698-2023 tillsynsbegäran mail.docx", "A 24698-2023")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 43704-2025</t>
+          <t>A 43702-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45912.40490740741</v>
+        <v>45912.40270833333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -3062,45 +3062,45 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43704-2025 artfynd.xlsx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43702-2025 artfynd.xlsx", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43704-2025 karta.png", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43702-2025 karta.png", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43704-2025 FSC-klagomål.docx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43702-2025 FSC-klagomål.docx", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43704-2025 FSC-klagomål mail.docx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43702-2025 FSC-klagomål mail.docx", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43704-2025 tillsynsbegäran.docx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43702-2025 tillsynsbegäran.docx", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43704-2025 tillsynsbegäran mail.docx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43702-2025 tillsynsbegäran mail.docx", "A 43702-2025")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 19459-2023</t>
+          <t>A 43704-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45049</v>
+        <v>45912.40490740741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3113,19 +3113,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -3137,55 +3137,55 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Luddvicker</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 19459-2023 artfynd.xlsx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43704-2025 artfynd.xlsx", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 19459-2023 karta.png", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43704-2025 karta.png", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 19459-2023 FSC-klagomål.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43704-2025 FSC-klagomål.docx", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 19459-2023 FSC-klagomål mail.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43704-2025 FSC-klagomål mail.docx", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 19459-2023 tillsynsbegäran.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43704-2025 tillsynsbegäran.docx", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 19459-2023 tillsynsbegäran mail.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43704-2025 tillsynsbegäran mail.docx", "A 43704-2025")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 24698-2023</t>
+          <t>A 19459-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45084</v>
+        <v>45049</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3198,19 +3198,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -3222,41 +3222,41 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Luddvicker</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 24698-2023 artfynd.xlsx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 19459-2023 artfynd.xlsx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 24698-2023 karta.png", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 19459-2023 karta.png", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 24698-2023 FSC-klagomål.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 19459-2023 FSC-klagomål.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 24698-2023 FSC-klagomål mail.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 19459-2023 FSC-klagomål mail.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 24698-2023 tillsynsbegäran.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 19459-2023 tillsynsbegäran.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 24698-2023 tillsynsbegäran mail.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 19459-2023 tillsynsbegäran mail.docx", "A 19459-2023")</f>
         <v/>
       </c>
     </row>
@@ -3270,7 +3270,7 @@
         <v>44740</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>45275.64739583333</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3377,14 +3377,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 13040-2024</t>
+          <t>A 57407-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45385</v>
+        <v>45980.44351851852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3434,14 +3434,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 72167-2021</t>
+          <t>A 13040-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44544</v>
+        <v>45385</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3491,14 +3491,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 57407-2025</t>
+          <t>A 13384-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45980.44351851852</v>
+        <v>45005</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3548,14 +3548,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 13384-2023</t>
+          <t>A 62183-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45005</v>
+        <v>46006.5356712963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3605,14 +3605,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 62183-2025</t>
+          <t>A 5733-2026</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>46006.5356712963</v>
+        <v>46051.5745949074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3662,14 +3662,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 5733-2026</t>
+          <t>A 72167-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>46051.5745949074</v>
+        <v>44544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -575,7 +575,7 @@
         <v>45685.38047453704</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45177</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
         <v>44262</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>45475.67303240741</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>45062</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45254</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44245</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>44728</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>44811</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>45097</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>45912.40814814815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>45551</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>45999.55524305555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>45616.62196759259</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
         <v>45530.55440972222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>46038</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>46003</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>45267</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>45169</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45747</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>44470</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44460</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>45084</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>45912.40270833333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>45912.40490740741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>45049</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44740</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>45275.64739583333</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>45980.44351851852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>45385</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>45005</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>46006.5356712963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>46051.5745949074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>44544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -575,7 +575,7 @@
         <v>45685.38047453704</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45177</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
         <v>44262</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>45475.67303240741</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>45062</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45254</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44245</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>44728</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>44811</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>45097</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>45912.40814814815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>45551</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>45999.55524305555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>45616.62196759259</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
         <v>45530.55440972222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>46038</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>46003</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>45267</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>45169</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45747</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>44470</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44460</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>45084</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>45912.40270833333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>45912.40490740741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>45049</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44740</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>45275.64739583333</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         <v>45980.44351851852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>45385</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>45005</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>46006.5356712963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>46051.5745949074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>44544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -575,7 +575,7 @@
         <v>45685.38047453704</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45177</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
         <v>44262</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>45475.67303240741</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>45062</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45254</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44245</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>44728</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1589,14 +1589,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 38039-2022</t>
+          <t>A 27636-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44811</v>
+        <v>45097</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1652,41 +1652,41 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 38039-2022 artfynd.xlsx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 27636-2023 artfynd.xlsx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 38039-2022 karta.png", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 27636-2023 karta.png", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 38039-2022 FSC-klagomål.docx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 27636-2023 FSC-klagomål.docx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 38039-2022 FSC-klagomål mail.docx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 27636-2023 FSC-klagomål mail.docx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 38039-2022 tillsynsbegäran.docx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 27636-2023 tillsynsbegäran.docx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 38039-2022 tillsynsbegäran mail.docx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 27636-2023 tillsynsbegäran mail.docx", "A 27636-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 27636-2023</t>
+          <t>A 38039-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45097</v>
+        <v>44811</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1742,41 +1742,41 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 27636-2023 artfynd.xlsx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 38039-2022 artfynd.xlsx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 27636-2023 karta.png", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 38039-2022 karta.png", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 27636-2023 FSC-klagomål.docx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 38039-2022 FSC-klagomål.docx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 27636-2023 FSC-klagomål mail.docx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 38039-2022 FSC-klagomål mail.docx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 27636-2023 tillsynsbegäran.docx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 38039-2022 tillsynsbegäran.docx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 27636-2023 tillsynsbegäran mail.docx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 38039-2022 tillsynsbegäran mail.docx", "A 38039-2022")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 43714-2025</t>
+          <t>A 39320-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45912.40814814815</v>
+        <v>45551</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1789,19 +1789,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>7.9</v>
+        <v>3.3</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1813,15 +1813,108 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>5</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Toppjungfrulin
+Korskovall
+Underviol
+Vårärt
+Skogsduva</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 39320-2024 artfynd.xlsx", "A 39320-2024")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 39320-2024 karta.png", "A 39320-2024")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 39320-2024 FSC-klagomål.docx", "A 39320-2024")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 39320-2024 FSC-klagomål mail.docx", "A 39320-2024")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 39320-2024 tillsynsbegäran.docx", "A 39320-2024")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 39320-2024 tillsynsbegäran mail.docx", "A 39320-2024")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 39320-2024 prioriterade fågelarter.docx", "A 39320-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 43714-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45912.40814814815</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>4</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Alvarsandbi
 Grönsångare
@@ -1830,139 +1923,46 @@
 Tibast</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43714-2025 artfynd.xlsx", "A 43714-2025")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43714-2025 karta.png", "A 43714-2025")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43714-2025 FSC-klagomål.docx", "A 43714-2025")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43714-2025 FSC-klagomål mail.docx", "A 43714-2025")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43714-2025 tillsynsbegäran.docx", "A 43714-2025")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43714-2025 tillsynsbegäran mail.docx", "A 43714-2025")</f>
         <v/>
       </c>
-      <c r="Z14">
+      <c r="Z15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 43714-2025 prioriterade fågelarter.docx", "A 43714-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 39320-2024</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45551</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Toppjungfrulin
-Korskovall
-Underviol
-Vårärt
-Skogsduva</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 39320-2024 artfynd.xlsx", "A 39320-2024")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 39320-2024 karta.png", "A 39320-2024")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 39320-2024 FSC-klagomål.docx", "A 39320-2024")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 39320-2024 FSC-klagomål mail.docx", "A 39320-2024")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 39320-2024 tillsynsbegäran.docx", "A 39320-2024")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 39320-2024 tillsynsbegäran mail.docx", "A 39320-2024")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 39320-2024 prioriterade fågelarter.docx", "A 39320-2024")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 60875-2025</t>
+          <t>A 54167-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45999.55524305555</v>
+        <v>45616.62196759259</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1975,22 +1975,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1999,15 +1999,103 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>4</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Murgröna
+Tvåblad
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 54167-2024 artfynd.xlsx", "A 54167-2024")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 54167-2024 karta.png", "A 54167-2024")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 54167-2024 FSC-klagomål.docx", "A 54167-2024")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 54167-2024 FSC-klagomål mail.docx", "A 54167-2024")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 54167-2024 tillsynsbegäran.docx", "A 54167-2024")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 54167-2024 tillsynsbegäran mail.docx", "A 54167-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 60875-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45999.55524305555</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Grönsångare
 Gulsparv
@@ -2015,120 +2103,32 @@
 Gråkråka</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 60875-2025 artfynd.xlsx", "A 60875-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 60875-2025 karta.png", "A 60875-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 60875-2025 FSC-klagomål.docx", "A 60875-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 60875-2025 FSC-klagomål mail.docx", "A 60875-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 60875-2025 tillsynsbegäran.docx", "A 60875-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 60875-2025 tillsynsbegäran mail.docx", "A 60875-2025")</f>
         <v/>
       </c>
-      <c r="Z16">
+      <c r="Z17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 60875-2025 prioriterade fågelarter.docx", "A 60875-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 54167-2024</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45616.62196759259</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Murgröna
-Tvåblad
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 54167-2024 artfynd.xlsx", "A 54167-2024")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 54167-2024 karta.png", "A 54167-2024")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 54167-2024 FSC-klagomål.docx", "A 54167-2024")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 54167-2024 FSC-klagomål mail.docx", "A 54167-2024")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 54167-2024 tillsynsbegäran.docx", "A 54167-2024")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 54167-2024 tillsynsbegäran mail.docx", "A 54167-2024")</f>
         <v/>
       </c>
     </row>
@@ -2142,7 +2142,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2226,14 +2226,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 35242-2024</t>
+          <t>A 2864-2026</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45530.55440972222</v>
+        <v>46038</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2246,22 +2246,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2273,236 +2273,236 @@
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>3</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Mindre märgborre
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 2864-2026 artfynd.xlsx", "A 2864-2026")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 2864-2026 karta.png", "A 2864-2026")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 2864-2026 FSC-klagomål.docx", "A 2864-2026")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 2864-2026 FSC-klagomål mail.docx", "A 2864-2026")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 2864-2026 tillsynsbegäran.docx", "A 2864-2026")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 2864-2026 tillsynsbegäran mail.docx", "A 2864-2026")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 2864-2026 prioriterade fågelarter.docx", "A 2864-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 61963-2025</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>46003</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Mindre märgborre
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 61963-2025 artfynd.xlsx", "A 61963-2025")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 61963-2025 karta.png", "A 61963-2025")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 61963-2025 FSC-klagomål.docx", "A 61963-2025")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 61963-2025 FSC-klagomål mail.docx", "A 61963-2025")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 61963-2025 tillsynsbegäran.docx", "A 61963-2025")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 61963-2025 tillsynsbegäran mail.docx", "A 61963-2025")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 61963-2025 prioriterade fågelarter.docx", "A 61963-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 35242-2024</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45530.55440972222</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Ryl
 Grönpyrola
 Skogsknipprot</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 35242-2024 artfynd.xlsx", "A 35242-2024")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 35242-2024 karta.png", "A 35242-2024")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 35242-2024 FSC-klagomål.docx", "A 35242-2024")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 35242-2024 FSC-klagomål mail.docx", "A 35242-2024")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 35242-2024 tillsynsbegäran.docx", "A 35242-2024")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 35242-2024 tillsynsbegäran mail.docx", "A 35242-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 2864-2026</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>46038</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Mindre märgborre
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 2864-2026 artfynd.xlsx", "A 2864-2026")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 2864-2026 karta.png", "A 2864-2026")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 2864-2026 FSC-klagomål.docx", "A 2864-2026")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 2864-2026 FSC-klagomål mail.docx", "A 2864-2026")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 2864-2026 tillsynsbegäran.docx", "A 2864-2026")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 2864-2026 tillsynsbegäran mail.docx", "A 2864-2026")</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 2864-2026 prioriterade fågelarter.docx", "A 2864-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 61963-2025</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>46003</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Mindre märgborre
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 61963-2025 artfynd.xlsx", "A 61963-2025")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 61963-2025 karta.png", "A 61963-2025")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 61963-2025 FSC-klagomål.docx", "A 61963-2025")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 61963-2025 FSC-klagomål mail.docx", "A 61963-2025")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 61963-2025 tillsynsbegäran.docx", "A 61963-2025")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 61963-2025 tillsynsbegäran mail.docx", "A 61963-2025")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 61963-2025 prioriterade fågelarter.docx", "A 61963-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 62231-2023</t>
+          <t>A 15600-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45267</v>
+        <v>45747</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2515,13 +2515,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2550,45 +2550,45 @@
       <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Murgröna
-Blåsippa</t>
+Scharlakansvårskål agg.</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 62231-2023 artfynd.xlsx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 15600-2025 artfynd.xlsx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 62231-2023 karta.png", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 15600-2025 karta.png", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 62231-2023 FSC-klagomål.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 15600-2025 FSC-klagomål.docx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 62231-2023 FSC-klagomål mail.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 15600-2025 FSC-klagomål mail.docx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 62231-2023 tillsynsbegäran.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 15600-2025 tillsynsbegäran.docx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 62231-2023 tillsynsbegäran mail.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 15600-2025 tillsynsbegäran mail.docx", "A 15600-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 40361-2023</t>
+          <t>A 62231-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45169</v>
+        <v>45267</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2601,16 +2601,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2619,62 +2619,62 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>2</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Lundalm
-Ängsskära</t>
+          <t>Murgröna
+Blåsippa</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 40361-2023 artfynd.xlsx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 62231-2023 artfynd.xlsx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 40361-2023 karta.png", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 62231-2023 karta.png", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 40361-2023 FSC-klagomål.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 62231-2023 FSC-klagomål.docx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 40361-2023 FSC-klagomål mail.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 62231-2023 FSC-klagomål mail.docx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 40361-2023 tillsynsbegäran.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 62231-2023 tillsynsbegäran.docx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 40361-2023 tillsynsbegäran mail.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 62231-2023 tillsynsbegäran mail.docx", "A 62231-2023")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 15600-2025</t>
+          <t>A 40361-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45747</v>
+        <v>45169</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2693,60 +2693,60 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>2</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
         <v>2</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Murgröna
-Scharlakansvårskål agg.</t>
+          <t>Lundalm
+Ängsskära</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 15600-2025 artfynd.xlsx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 40361-2023 artfynd.xlsx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 15600-2025 karta.png", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 40361-2023 karta.png", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 15600-2025 FSC-klagomål.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 40361-2023 FSC-klagomål.docx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 15600-2025 FSC-klagomål mail.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 40361-2023 FSC-klagomål mail.docx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 15600-2025 tillsynsbegäran.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 40361-2023 tillsynsbegäran.docx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 15600-2025 tillsynsbegäran mail.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 40361-2023 tillsynsbegäran mail.docx", "A 40361-2023")</f>
         <v/>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
         <v>44470</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44460</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2923,14 +2923,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 24698-2023</t>
+          <t>A 43702-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45084</v>
+        <v>45912.40270833333</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2981,41 +2981,41 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 24698-2023 artfynd.xlsx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43702-2025 artfynd.xlsx", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 24698-2023 karta.png", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43702-2025 karta.png", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 24698-2023 FSC-klagomål.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43702-2025 FSC-klagomål.docx", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 24698-2023 FSC-klagomål mail.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43702-2025 FSC-klagomål mail.docx", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 24698-2023 tillsynsbegäran.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43702-2025 tillsynsbegäran.docx", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 24698-2023 tillsynsbegäran mail.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43702-2025 tillsynsbegäran mail.docx", "A 43702-2025")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 43702-2025</t>
+          <t>A 43704-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45912.40270833333</v>
+        <v>45912.40490740741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -3062,45 +3062,45 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43702-2025 artfynd.xlsx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43704-2025 artfynd.xlsx", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43702-2025 karta.png", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43704-2025 karta.png", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43702-2025 FSC-klagomål.docx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43704-2025 FSC-klagomål.docx", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43702-2025 FSC-klagomål mail.docx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43704-2025 FSC-klagomål mail.docx", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43702-2025 tillsynsbegäran.docx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43704-2025 tillsynsbegäran.docx", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43702-2025 tillsynsbegäran mail.docx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43704-2025 tillsynsbegäran mail.docx", "A 43704-2025")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 43704-2025</t>
+          <t>A 19459-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45912.40490740741</v>
+        <v>45049</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3113,19 +3113,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -3137,55 +3137,55 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Luddvicker</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43704-2025 artfynd.xlsx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 19459-2023 artfynd.xlsx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43704-2025 karta.png", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 19459-2023 karta.png", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43704-2025 FSC-klagomål.docx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 19459-2023 FSC-klagomål.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43704-2025 FSC-klagomål mail.docx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 19459-2023 FSC-klagomål mail.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43704-2025 tillsynsbegäran.docx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 19459-2023 tillsynsbegäran.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43704-2025 tillsynsbegäran mail.docx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 19459-2023 tillsynsbegäran mail.docx", "A 19459-2023")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 19459-2023</t>
+          <t>A 24698-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45049</v>
+        <v>45084</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3198,19 +3198,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -3222,41 +3222,41 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Luddvicker</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 19459-2023 artfynd.xlsx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 24698-2023 artfynd.xlsx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 19459-2023 karta.png", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 24698-2023 karta.png", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 19459-2023 FSC-klagomål.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 24698-2023 FSC-klagomål.docx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 19459-2023 FSC-klagomål mail.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 24698-2023 FSC-klagomål mail.docx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 19459-2023 tillsynsbegäran.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 24698-2023 tillsynsbegäran.docx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 19459-2023 tillsynsbegäran mail.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 24698-2023 tillsynsbegäran mail.docx", "A 24698-2023")</f>
         <v/>
       </c>
     </row>
@@ -3270,7 +3270,7 @@
         <v>44740</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3320,14 +3320,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 63676-2023</t>
+          <t>A 13040-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45275.64739583333</v>
+        <v>45385</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3377,14 +3377,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 57407-2025</t>
+          <t>A 13384-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45980.44351851852</v>
+        <v>45005</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3434,14 +3434,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 13040-2024</t>
+          <t>A 63676-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45385</v>
+        <v>45275.64739583333</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3491,14 +3491,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 13384-2023</t>
+          <t>A 72167-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45005</v>
+        <v>44544</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3548,14 +3548,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 62183-2025</t>
+          <t>A 57407-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>46006.5356712963</v>
+        <v>45980.44351851852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3605,14 +3605,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 5733-2026</t>
+          <t>A 62183-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>46051.5745949074</v>
+        <v>46006.5356712963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3662,14 +3662,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 72167-2021</t>
+          <t>A 5733-2026</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44544</v>
+        <v>46051.5745949074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -575,7 +575,7 @@
         <v>45685.38047453704</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45177</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
         <v>44262</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>45475.67303240741</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>45062</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45254</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44245</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1499,14 +1499,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 24778-2022</t>
+          <t>A 27636-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44728</v>
+        <v>45097</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,31 +1519,31 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>7.4</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
         <v>2</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>4</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1552,6 +1552,96 @@
         <v>6</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Backtimjan
+Solvända
+Murgröna
+Alvarmalört
+Gullviva</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 27636-2023 artfynd.xlsx", "A 27636-2023")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 27636-2023 karta.png", "A 27636-2023")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 27636-2023 FSC-klagomål.docx", "A 27636-2023")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 27636-2023 FSC-klagomål mail.docx", "A 27636-2023")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 27636-2023 tillsynsbegäran.docx", "A 27636-2023")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 27636-2023 tillsynsbegäran mail.docx", "A 27636-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 24778-2022</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>44728</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Tofsäxing
 Flentimotej
@@ -1561,87 +1651,87 @@
 Murgröna</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 24778-2022 artfynd.xlsx", "A 24778-2022")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 24778-2022 karta.png", "A 24778-2022")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 24778-2022 FSC-klagomål.docx", "A 24778-2022")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 24778-2022 FSC-klagomål mail.docx", "A 24778-2022")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 24778-2022 tillsynsbegäran.docx", "A 24778-2022")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 24778-2022 tillsynsbegäran mail.docx", "A 24778-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 27636-2023</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45097</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 38039-2022</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>44811</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>KALMAR LÄN</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>MÖRBYLÅNGA</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G13" t="n">
         <v>7.4</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>2</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
         <v>2</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>3</v>
       </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
         <v>6</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Ask
 Backtimjan
@@ -1651,96 +1741,6 @@
 Gullviva</t>
         </is>
       </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 27636-2023 artfynd.xlsx", "A 27636-2023")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 27636-2023 karta.png", "A 27636-2023")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 27636-2023 FSC-klagomål.docx", "A 27636-2023")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 27636-2023 FSC-klagomål mail.docx", "A 27636-2023")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 27636-2023 tillsynsbegäran.docx", "A 27636-2023")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 27636-2023 tillsynsbegäran mail.docx", "A 27636-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 38039-2022</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>44811</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>3</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>6</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Backtimjan
-Solvända
-Murgröna
-Alvarmalört
-Gullviva</t>
-        </is>
-      </c>
       <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 38039-2022 artfynd.xlsx", "A 38039-2022")</f>
         <v/>
@@ -1776,7 +1776,7 @@
         <v>45551</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>45912.40814814815</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1955,14 +1955,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 54167-2024</t>
+          <t>A 60875-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45616.62196759259</v>
+        <v>45999.55524305555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1975,22 +1975,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1999,15 +1999,107 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>4</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Grönsångare
+Gulsparv
+Svinrot
+Gråkråka</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 60875-2025 artfynd.xlsx", "A 60875-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 60875-2025 karta.png", "A 60875-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 60875-2025 FSC-klagomål.docx", "A 60875-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 60875-2025 FSC-klagomål mail.docx", "A 60875-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 60875-2025 tillsynsbegäran.docx", "A 60875-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 60875-2025 tillsynsbegäran mail.docx", "A 60875-2025")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 60875-2025 prioriterade fågelarter.docx", "A 60875-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 54167-2024</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45616.62196759259</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Ask
 Murgröna
@@ -2015,120 +2107,28 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 54167-2024 artfynd.xlsx", "A 54167-2024")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 54167-2024 karta.png", "A 54167-2024")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 54167-2024 FSC-klagomål.docx", "A 54167-2024")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 54167-2024 FSC-klagomål mail.docx", "A 54167-2024")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 54167-2024 tillsynsbegäran.docx", "A 54167-2024")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 54167-2024 tillsynsbegäran mail.docx", "A 54167-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 60875-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45999.55524305555</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>3</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Grönsångare
-Gulsparv
-Svinrot
-Gråkråka</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 60875-2025 artfynd.xlsx", "A 60875-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 60875-2025 karta.png", "A 60875-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 60875-2025 FSC-klagomål.docx", "A 60875-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 60875-2025 FSC-klagomål mail.docx", "A 60875-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 60875-2025 tillsynsbegäran.docx", "A 60875-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 60875-2025 tillsynsbegäran mail.docx", "A 60875-2025")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 60875-2025 prioriterade fågelarter.docx", "A 60875-2025")</f>
         <v/>
       </c>
     </row>
@@ -2142,7 +2142,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2226,14 +2226,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 2864-2026</t>
+          <t>A 35242-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>46038</v>
+        <v>45530.55440972222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2246,22 +2246,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
         <v>2</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2273,222 +2273,222 @@
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>3</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Ryl
+Grönpyrola
+Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 35242-2024 artfynd.xlsx", "A 35242-2024")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 35242-2024 karta.png", "A 35242-2024")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 35242-2024 FSC-klagomål.docx", "A 35242-2024")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 35242-2024 FSC-klagomål mail.docx", "A 35242-2024")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 35242-2024 tillsynsbegäran.docx", "A 35242-2024")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 35242-2024 tillsynsbegäran mail.docx", "A 35242-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 2864-2026</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>46038</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Mindre märgborre
 Blåsippa</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 2864-2026 artfynd.xlsx", "A 2864-2026")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 2864-2026 karta.png", "A 2864-2026")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 2864-2026 FSC-klagomål.docx", "A 2864-2026")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 2864-2026 FSC-klagomål mail.docx", "A 2864-2026")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 2864-2026 tillsynsbegäran.docx", "A 2864-2026")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 2864-2026 tillsynsbegäran mail.docx", "A 2864-2026")</f>
         <v/>
       </c>
-      <c r="Z19">
+      <c r="Z20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 2864-2026 prioriterade fågelarter.docx", "A 2864-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>A 61963-2025</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B21" s="1" t="n">
         <v>46003</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="C21" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>KALMAR LÄN</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>MÖRBYLÅNGA</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G21" t="n">
         <v>1.1</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H21" t="n">
         <v>2</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>3</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Mindre märgborre
 Blåsippa</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 61963-2025 artfynd.xlsx", "A 61963-2025")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 61963-2025 karta.png", "A 61963-2025")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 61963-2025 FSC-klagomål.docx", "A 61963-2025")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 61963-2025 FSC-klagomål mail.docx", "A 61963-2025")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 61963-2025 tillsynsbegäran.docx", "A 61963-2025")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 61963-2025 tillsynsbegäran mail.docx", "A 61963-2025")</f>
         <v/>
       </c>
-      <c r="Z20">
+      <c r="Z21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 61963-2025 prioriterade fågelarter.docx", "A 61963-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 35242-2024</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45530.55440972222</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Ryl
-Grönpyrola
-Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 35242-2024 artfynd.xlsx", "A 35242-2024")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 35242-2024 karta.png", "A 35242-2024")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 35242-2024 FSC-klagomål.docx", "A 35242-2024")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 35242-2024 FSC-klagomål mail.docx", "A 35242-2024")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 35242-2024 tillsynsbegäran.docx", "A 35242-2024")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 35242-2024 tillsynsbegäran mail.docx", "A 35242-2024")</f>
         <v/>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
         <v>45747</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>45267</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45169</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>44470</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44460</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>45912.40270833333</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>45912.40490740741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3093,14 +3093,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 19459-2023</t>
+          <t>A 24698-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45049</v>
+        <v>45084</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3113,19 +3113,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -3137,55 +3137,55 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Luddvicker</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 19459-2023 artfynd.xlsx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 24698-2023 artfynd.xlsx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 19459-2023 karta.png", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 24698-2023 karta.png", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 19459-2023 FSC-klagomål.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 24698-2023 FSC-klagomål.docx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 19459-2023 FSC-klagomål mail.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 24698-2023 FSC-klagomål mail.docx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 19459-2023 tillsynsbegäran.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 24698-2023 tillsynsbegäran.docx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 19459-2023 tillsynsbegäran mail.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 24698-2023 tillsynsbegäran mail.docx", "A 24698-2023")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 24698-2023</t>
+          <t>A 19459-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45084</v>
+        <v>45049</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3198,19 +3198,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -3222,41 +3222,41 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Luddvicker</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 24698-2023 artfynd.xlsx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 19459-2023 artfynd.xlsx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 24698-2023 karta.png", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 19459-2023 karta.png", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 24698-2023 FSC-klagomål.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 19459-2023 FSC-klagomål.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 24698-2023 FSC-klagomål mail.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 19459-2023 FSC-klagomål mail.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 24698-2023 tillsynsbegäran.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 19459-2023 tillsynsbegäran.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 24698-2023 tillsynsbegäran mail.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 19459-2023 tillsynsbegäran mail.docx", "A 19459-2023")</f>
         <v/>
       </c>
     </row>
@@ -3270,7 +3270,7 @@
         <v>44740</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3320,14 +3320,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 13040-2024</t>
+          <t>A 63676-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45385</v>
+        <v>45275.64739583333</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3377,14 +3377,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 13384-2023</t>
+          <t>A 57407-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45005</v>
+        <v>45980.44351851852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3434,14 +3434,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 63676-2023</t>
+          <t>A 13040-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45275.64739583333</v>
+        <v>45385</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3491,14 +3491,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 72167-2021</t>
+          <t>A 13384-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44544</v>
+        <v>45005</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3548,14 +3548,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 57407-2025</t>
+          <t>A 62183-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45980.44351851852</v>
+        <v>46006.5356712963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3605,14 +3605,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 62183-2025</t>
+          <t>A 5733-2026</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>46006.5356712963</v>
+        <v>46051.5745949074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3662,14 +3662,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 5733-2026</t>
+          <t>A 72167-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>46051.5745949074</v>
+        <v>44544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -575,7 +575,7 @@
         <v>45685.38047453704</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45177</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
         <v>44262</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,14 +914,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 21219-2023</t>
+          <t>A 27865-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45062</v>
+        <v>45475.67303240741</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,22 +934,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -958,15 +958,115 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>16</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Bergjohannesört
+Bredarun
+Klasefibbla
+Solvända
+Svart taggsvamp
+Vippärt
+Blå slemspindling
+Diskvaxskivling
+Fjällig taggsvamp s.str.
+Murgröna
+Nästrot
+Skogsknipprot
+Strävlosta
+Underviol
+Grönvit nattviol
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 27865-2024 artfynd.xlsx", "A 27865-2024")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 27865-2024 karta.png", "A 27865-2024")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 27865-2024 FSC-klagomål.docx", "A 27865-2024")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 27865-2024 FSC-klagomål mail.docx", "A 27865-2024")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 27865-2024 tillsynsbegäran.docx", "A 27865-2024")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 27865-2024 tillsynsbegäran mail.docx", "A 27865-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 21219-2023</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>16</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Ask
 Olivbrun spindling
@@ -986,128 +1086,28 @@
 Gullviva</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 21219-2023 artfynd.xlsx", "A 21219-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 21219-2023 karta.png", "A 21219-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 21219-2023 FSC-klagomål.docx", "A 21219-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 21219-2023 FSC-klagomål mail.docx", "A 21219-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 21219-2023 tillsynsbegäran.docx", "A 21219-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 21219-2023 tillsynsbegäran mail.docx", "A 21219-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 27865-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45475.67303240741</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>6</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>16</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Bergjohannesört
-Bredarun
-Klasefibbla
-Solvända
-Svart taggsvamp
-Vippärt
-Blå slemspindling
-Diskvaxskivling
-Fjällig taggsvamp s.str.
-Murgröna
-Nästrot
-Skogsknipprot
-Strävlosta
-Underviol
-Grönvit nattviol
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 27865-2024 artfynd.xlsx", "A 27865-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 27865-2024 karta.png", "A 27865-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 27865-2024 FSC-klagomål.docx", "A 27865-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 27865-2024 FSC-klagomål mail.docx", "A 27865-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 27865-2024 tillsynsbegäran.docx", "A 27865-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 27865-2024 tillsynsbegäran mail.docx", "A 27865-2024")</f>
         <v/>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
         <v>45062</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45254</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44245</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1499,14 +1499,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 27636-2023</t>
+          <t>A 24778-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45097</v>
+        <v>44728</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,16 +1519,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>7.4</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>2</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1552,6 +1552,96 @@
         <v>6</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Tofsäxing
+Flentimotej
+Poppeltofsskivling
+Slåtterfibbla
+Kalktallört
+Murgröna</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 24778-2022 artfynd.xlsx", "A 24778-2022")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 24778-2022 karta.png", "A 24778-2022")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 24778-2022 FSC-klagomål.docx", "A 24778-2022")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 24778-2022 FSC-klagomål mail.docx", "A 24778-2022")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 24778-2022 tillsynsbegäran.docx", "A 24778-2022")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 24778-2022 tillsynsbegäran mail.docx", "A 24778-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 27636-2023</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45097</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Ask
 Backtimjan
@@ -1561,118 +1651,28 @@
 Gullviva</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 27636-2023 artfynd.xlsx", "A 27636-2023")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 27636-2023 karta.png", "A 27636-2023")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 27636-2023 FSC-klagomål.docx", "A 27636-2023")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 27636-2023 FSC-klagomål mail.docx", "A 27636-2023")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 27636-2023 tillsynsbegäran.docx", "A 27636-2023")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 27636-2023 tillsynsbegäran mail.docx", "A 27636-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 24778-2022</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>44728</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>4</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>6</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Tofsäxing
-Flentimotej
-Poppeltofsskivling
-Slåtterfibbla
-Kalktallört
-Murgröna</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 24778-2022 artfynd.xlsx", "A 24778-2022")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 24778-2022 karta.png", "A 24778-2022")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 24778-2022 FSC-klagomål.docx", "A 24778-2022")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 24778-2022 FSC-klagomål mail.docx", "A 24778-2022")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 24778-2022 tillsynsbegäran.docx", "A 24778-2022")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 24778-2022 tillsynsbegäran mail.docx", "A 24778-2022")</f>
         <v/>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
         <v>44811</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>45551</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>45912.40814814815</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1955,14 +1955,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 60875-2025</t>
+          <t>A 54167-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45999.55524305555</v>
+        <v>45616.62196759259</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1975,22 +1975,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1999,15 +1999,103 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>4</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Murgröna
+Tvåblad
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 54167-2024 artfynd.xlsx", "A 54167-2024")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 54167-2024 karta.png", "A 54167-2024")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 54167-2024 FSC-klagomål.docx", "A 54167-2024")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 54167-2024 FSC-klagomål mail.docx", "A 54167-2024")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 54167-2024 tillsynsbegäran.docx", "A 54167-2024")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 54167-2024 tillsynsbegäran mail.docx", "A 54167-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 60875-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45999.55524305555</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Grönsångare
 Gulsparv
@@ -2015,120 +2103,32 @@
 Gråkråka</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 60875-2025 artfynd.xlsx", "A 60875-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 60875-2025 karta.png", "A 60875-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 60875-2025 FSC-klagomål.docx", "A 60875-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 60875-2025 FSC-klagomål mail.docx", "A 60875-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 60875-2025 tillsynsbegäran.docx", "A 60875-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 60875-2025 tillsynsbegäran mail.docx", "A 60875-2025")</f>
         <v/>
       </c>
-      <c r="Z16">
+      <c r="Z17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 60875-2025 prioriterade fågelarter.docx", "A 60875-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 54167-2024</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45616.62196759259</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Murgröna
-Tvåblad
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 54167-2024 artfynd.xlsx", "A 54167-2024")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 54167-2024 karta.png", "A 54167-2024")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 54167-2024 FSC-klagomål.docx", "A 54167-2024")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 54167-2024 FSC-klagomål mail.docx", "A 54167-2024")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 54167-2024 tillsynsbegäran.docx", "A 54167-2024")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 54167-2024 tillsynsbegäran mail.docx", "A 54167-2024")</f>
         <v/>
       </c>
     </row>
@@ -2142,7 +2142,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
         <v>45530.55440972222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>46038</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>46003</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>45747</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>45267</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45169</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>44470</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44460</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2923,14 +2923,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 43702-2025</t>
+          <t>A 19459-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45912.40270833333</v>
+        <v>45049</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2943,19 +2943,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2967,55 +2967,55 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Luddvicker</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43702-2025 artfynd.xlsx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 19459-2023 artfynd.xlsx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43702-2025 karta.png", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 19459-2023 karta.png", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43702-2025 FSC-klagomål.docx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 19459-2023 FSC-klagomål.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43702-2025 FSC-klagomål mail.docx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 19459-2023 FSC-klagomål mail.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43702-2025 tillsynsbegäran.docx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 19459-2023 tillsynsbegäran.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43702-2025 tillsynsbegäran mail.docx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 19459-2023 tillsynsbegäran mail.docx", "A 19459-2023")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 43704-2025</t>
+          <t>A 43702-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45912.40490740741</v>
+        <v>45912.40270833333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -3062,45 +3062,45 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43704-2025 artfynd.xlsx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43702-2025 artfynd.xlsx", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43704-2025 karta.png", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43702-2025 karta.png", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43704-2025 FSC-klagomål.docx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43702-2025 FSC-klagomål.docx", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43704-2025 FSC-klagomål mail.docx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43702-2025 FSC-klagomål mail.docx", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43704-2025 tillsynsbegäran.docx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43702-2025 tillsynsbegäran.docx", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43704-2025 tillsynsbegäran mail.docx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43702-2025 tillsynsbegäran mail.docx", "A 43702-2025")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 24698-2023</t>
+          <t>A 43704-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45084</v>
+        <v>45912.40490740741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3147,45 +3147,45 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 24698-2023 artfynd.xlsx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43704-2025 artfynd.xlsx", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 24698-2023 karta.png", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43704-2025 karta.png", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 24698-2023 FSC-klagomål.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43704-2025 FSC-klagomål.docx", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 24698-2023 FSC-klagomål mail.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43704-2025 FSC-klagomål mail.docx", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 24698-2023 tillsynsbegäran.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43704-2025 tillsynsbegäran.docx", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 24698-2023 tillsynsbegäran mail.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43704-2025 tillsynsbegäran mail.docx", "A 43704-2025")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 19459-2023</t>
+          <t>A 24698-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45049</v>
+        <v>45084</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3198,19 +3198,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -3222,41 +3222,41 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Luddvicker</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 19459-2023 artfynd.xlsx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 24698-2023 artfynd.xlsx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 19459-2023 karta.png", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 24698-2023 karta.png", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 19459-2023 FSC-klagomål.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 24698-2023 FSC-klagomål.docx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 19459-2023 FSC-klagomål mail.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 24698-2023 FSC-klagomål mail.docx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 19459-2023 tillsynsbegäran.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 24698-2023 tillsynsbegäran.docx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 19459-2023 tillsynsbegäran mail.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 24698-2023 tillsynsbegäran mail.docx", "A 24698-2023")</f>
         <v/>
       </c>
     </row>
@@ -3270,7 +3270,7 @@
         <v>44740</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>45275.64739583333</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3377,14 +3377,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 57407-2025</t>
+          <t>A 13384-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45980.44351851852</v>
+        <v>45005</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3434,14 +3434,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 13040-2024</t>
+          <t>A 72167-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45385</v>
+        <v>44544</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3491,14 +3491,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 13384-2023</t>
+          <t>A 13040-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45005</v>
+        <v>45385</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3548,14 +3548,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 62183-2025</t>
+          <t>A 57407-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>46006.5356712963</v>
+        <v>45980.44351851852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3605,14 +3605,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 5733-2026</t>
+          <t>A 62183-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>46051.5745949074</v>
+        <v>46006.5356712963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3662,14 +3662,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 72167-2021</t>
+          <t>A 5733-2026</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44544</v>
+        <v>46051.5745949074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -575,7 +575,7 @@
         <v>45685.38047453704</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45177</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
         <v>44262</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,14 +914,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 27865-2024</t>
+          <t>A 21219-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45475.67303240741</v>
+        <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,22 +934,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -958,15 +958,115 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
         <v>16</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Olivbrun spindling
+Grov baronmossa
+Murgröna
+Nästrot
+Platt fjädermossa
+Purpurknipprot
+Skogsknipprot
+Strimspindling
+Sårläka
+Traslav
+Tvåblad
+Underviol
+Fläcknycklar
+Blåsippa
+Gullviva</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 21219-2023 artfynd.xlsx", "A 21219-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 21219-2023 karta.png", "A 21219-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 21219-2023 FSC-klagomål.docx", "A 21219-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 21219-2023 FSC-klagomål mail.docx", "A 21219-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 21219-2023 tillsynsbegäran.docx", "A 21219-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 21219-2023 tillsynsbegäran mail.docx", "A 21219-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 27865-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45475.67303240741</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>16</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Bergjohannesört
 Bredarun
@@ -986,128 +1086,28 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 27865-2024 artfynd.xlsx", "A 27865-2024")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 27865-2024 karta.png", "A 27865-2024")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 27865-2024 FSC-klagomål.docx", "A 27865-2024")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 27865-2024 FSC-klagomål mail.docx", "A 27865-2024")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 27865-2024 tillsynsbegäran.docx", "A 27865-2024")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 27865-2024 tillsynsbegäran mail.docx", "A 27865-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 21219-2023</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45062</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>16</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Olivbrun spindling
-Grov baronmossa
-Murgröna
-Nästrot
-Platt fjädermossa
-Purpurknipprot
-Skogsknipprot
-Strimspindling
-Sårläka
-Traslav
-Tvåblad
-Underviol
-Fläcknycklar
-Blåsippa
-Gullviva</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 21219-2023 artfynd.xlsx", "A 21219-2023")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 21219-2023 karta.png", "A 21219-2023")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 21219-2023 FSC-klagomål.docx", "A 21219-2023")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 21219-2023 FSC-klagomål mail.docx", "A 21219-2023")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 21219-2023 tillsynsbegäran.docx", "A 21219-2023")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 21219-2023 tillsynsbegäran mail.docx", "A 21219-2023")</f>
         <v/>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
         <v>45062</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45254</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44245</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>44728</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1589,14 +1589,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 27636-2023</t>
+          <t>A 38039-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45097</v>
+        <v>44811</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1652,41 +1652,41 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 27636-2023 artfynd.xlsx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 38039-2022 artfynd.xlsx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 27636-2023 karta.png", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 38039-2022 karta.png", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 27636-2023 FSC-klagomål.docx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 38039-2022 FSC-klagomål.docx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 27636-2023 FSC-klagomål mail.docx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 38039-2022 FSC-klagomål mail.docx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 27636-2023 tillsynsbegäran.docx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 38039-2022 tillsynsbegäran.docx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 27636-2023 tillsynsbegäran mail.docx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 38039-2022 tillsynsbegäran mail.docx", "A 38039-2022")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 38039-2022</t>
+          <t>A 27636-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44811</v>
+        <v>45097</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1742,41 +1742,41 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 38039-2022 artfynd.xlsx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 27636-2023 artfynd.xlsx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 38039-2022 karta.png", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 27636-2023 karta.png", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 38039-2022 FSC-klagomål.docx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 27636-2023 FSC-klagomål.docx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 38039-2022 FSC-klagomål mail.docx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 27636-2023 FSC-klagomål mail.docx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 38039-2022 tillsynsbegäran.docx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 27636-2023 tillsynsbegäran.docx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 38039-2022 tillsynsbegäran mail.docx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 27636-2023 tillsynsbegäran mail.docx", "A 27636-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 39320-2024</t>
+          <t>A 43714-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45551</v>
+        <v>45912.40814814815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1789,19 +1789,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.3</v>
+        <v>7.9</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1813,15 +1813,108 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>5</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Alvarsandbi
+Grönsångare
+Mindre bastardsvärmare
+Sexfläckig bastardsvärmare
+Tibast</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43714-2025 artfynd.xlsx", "A 43714-2025")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43714-2025 karta.png", "A 43714-2025")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43714-2025 FSC-klagomål.docx", "A 43714-2025")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43714-2025 FSC-klagomål mail.docx", "A 43714-2025")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43714-2025 tillsynsbegäran.docx", "A 43714-2025")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43714-2025 tillsynsbegäran mail.docx", "A 43714-2025")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 43714-2025 prioriterade fågelarter.docx", "A 43714-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 39320-2024</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45551</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Toppjungfrulin
 Korskovall
@@ -1830,125 +1923,32 @@
 Skogsduva</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 39320-2024 artfynd.xlsx", "A 39320-2024")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 39320-2024 karta.png", "A 39320-2024")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 39320-2024 FSC-klagomål.docx", "A 39320-2024")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 39320-2024 FSC-klagomål mail.docx", "A 39320-2024")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 39320-2024 tillsynsbegäran.docx", "A 39320-2024")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 39320-2024 tillsynsbegäran mail.docx", "A 39320-2024")</f>
         <v/>
       </c>
-      <c r="Z14">
+      <c r="Z15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 39320-2024 prioriterade fågelarter.docx", "A 39320-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 43714-2025</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45912.40814814815</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>4</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Alvarsandbi
-Grönsångare
-Mindre bastardsvärmare
-Sexfläckig bastardsvärmare
-Tibast</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43714-2025 artfynd.xlsx", "A 43714-2025")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43714-2025 karta.png", "A 43714-2025")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43714-2025 FSC-klagomål.docx", "A 43714-2025")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43714-2025 FSC-klagomål mail.docx", "A 43714-2025")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43714-2025 tillsynsbegäran.docx", "A 43714-2025")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43714-2025 tillsynsbegäran mail.docx", "A 43714-2025")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 43714-2025 prioriterade fågelarter.docx", "A 43714-2025")</f>
         <v/>
       </c>
     </row>
@@ -1962,7 +1962,7 @@
         <v>45616.62196759259</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>45999.55524305555</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
         <v>45530.55440972222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>46038</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>46003</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2495,14 +2495,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 15600-2025</t>
+          <t>A 62231-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45747</v>
+        <v>45267</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2515,13 +2515,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2550,45 +2550,45 @@
       <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Murgröna
-Scharlakansvårskål agg.</t>
+Blåsippa</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 15600-2025 artfynd.xlsx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 62231-2023 artfynd.xlsx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 15600-2025 karta.png", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 62231-2023 karta.png", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 15600-2025 FSC-klagomål.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 62231-2023 FSC-klagomål.docx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 15600-2025 FSC-klagomål mail.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 62231-2023 FSC-klagomål mail.docx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 15600-2025 tillsynsbegäran.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 62231-2023 tillsynsbegäran.docx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 15600-2025 tillsynsbegäran mail.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 62231-2023 tillsynsbegäran mail.docx", "A 62231-2023")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 62231-2023</t>
+          <t>A 40361-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45267</v>
+        <v>45169</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2601,16 +2601,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2619,62 +2619,62 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>2</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Murgröna
-Blåsippa</t>
+          <t>Lundalm
+Ängsskära</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 62231-2023 artfynd.xlsx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 40361-2023 artfynd.xlsx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 62231-2023 karta.png", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 40361-2023 karta.png", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 62231-2023 FSC-klagomål.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 40361-2023 FSC-klagomål.docx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 62231-2023 FSC-klagomål mail.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 40361-2023 FSC-klagomål mail.docx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 62231-2023 tillsynsbegäran.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 40361-2023 tillsynsbegäran.docx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 62231-2023 tillsynsbegäran mail.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 40361-2023 tillsynsbegäran mail.docx", "A 40361-2023")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 40361-2023</t>
+          <t>A 15600-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45169</v>
+        <v>45747</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2693,10 +2693,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2705,48 +2705,48 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>2</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Lundalm
-Ängsskära</t>
+          <t>Murgröna
+Scharlakansvårskål agg.</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 40361-2023 artfynd.xlsx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 15600-2025 artfynd.xlsx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 40361-2023 karta.png", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 15600-2025 karta.png", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 40361-2023 FSC-klagomål.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 15600-2025 FSC-klagomål.docx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 40361-2023 FSC-klagomål mail.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 15600-2025 FSC-klagomål mail.docx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 40361-2023 tillsynsbegäran.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 15600-2025 tillsynsbegäran.docx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 40361-2023 tillsynsbegäran mail.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 15600-2025 tillsynsbegäran mail.docx", "A 15600-2025")</f>
         <v/>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
         <v>44470</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44460</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2923,14 +2923,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 19459-2023</t>
+          <t>A 24698-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45049</v>
+        <v>45084</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2943,19 +2943,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2967,41 +2967,41 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Luddvicker</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 19459-2023 artfynd.xlsx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 24698-2023 artfynd.xlsx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 19459-2023 karta.png", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 24698-2023 karta.png", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 19459-2023 FSC-klagomål.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 24698-2023 FSC-klagomål.docx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 19459-2023 FSC-klagomål mail.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 24698-2023 FSC-klagomål mail.docx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 19459-2023 tillsynsbegäran.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 24698-2023 tillsynsbegäran.docx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 19459-2023 tillsynsbegäran mail.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 24698-2023 tillsynsbegäran mail.docx", "A 24698-2023")</f>
         <v/>
       </c>
     </row>
@@ -3015,7 +3015,7 @@
         <v>45912.40270833333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>45912.40490740741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3178,14 +3178,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 24698-2023</t>
+          <t>A 19459-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45084</v>
+        <v>45049</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3198,19 +3198,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -3222,41 +3222,41 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Luddvicker</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 24698-2023 artfynd.xlsx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 19459-2023 artfynd.xlsx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 24698-2023 karta.png", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 19459-2023 karta.png", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 24698-2023 FSC-klagomål.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 19459-2023 FSC-klagomål.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 24698-2023 FSC-klagomål mail.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 19459-2023 FSC-klagomål mail.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 24698-2023 tillsynsbegäran.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 19459-2023 tillsynsbegäran.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 24698-2023 tillsynsbegäran mail.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 19459-2023 tillsynsbegäran mail.docx", "A 19459-2023")</f>
         <v/>
       </c>
     </row>
@@ -3270,7 +3270,7 @@
         <v>44740</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>45275.64739583333</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3377,14 +3377,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 13384-2023</t>
+          <t>A 13040-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45005</v>
+        <v>45385</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3434,14 +3434,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 72167-2021</t>
+          <t>A 13384-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44544</v>
+        <v>45005</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3491,14 +3491,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 13040-2024</t>
+          <t>A 57407-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45385</v>
+        <v>45980.44351851852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3548,14 +3548,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 57407-2025</t>
+          <t>A 62183-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45980.44351851852</v>
+        <v>46006.5356712963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3605,14 +3605,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 62183-2025</t>
+          <t>A 5733-2026</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>46006.5356712963</v>
+        <v>46051.5745949074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3662,14 +3662,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 5733-2026</t>
+          <t>A 72167-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>46051.5745949074</v>
+        <v>44544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -575,7 +575,7 @@
         <v>45685.38047453704</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45177</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
         <v>44262</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>45475.67303240741</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>45062</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45254</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44245</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>44728</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>44811</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>45097</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>45912.40814814815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>45551</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1955,14 +1955,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 54167-2024</t>
+          <t>A 60875-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45616.62196759259</v>
+        <v>45999.55524305555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1975,22 +1975,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1999,15 +1999,107 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>4</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Grönsångare
+Gulsparv
+Svinrot
+Gråkråka</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 60875-2025 artfynd.xlsx", "A 60875-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 60875-2025 karta.png", "A 60875-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 60875-2025 FSC-klagomål.docx", "A 60875-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 60875-2025 FSC-klagomål mail.docx", "A 60875-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 60875-2025 tillsynsbegäran.docx", "A 60875-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 60875-2025 tillsynsbegäran mail.docx", "A 60875-2025")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 60875-2025 prioriterade fågelarter.docx", "A 60875-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 54167-2024</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45616.62196759259</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Ask
 Murgröna
@@ -2015,120 +2107,28 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 54167-2024 artfynd.xlsx", "A 54167-2024")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 54167-2024 karta.png", "A 54167-2024")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 54167-2024 FSC-klagomål.docx", "A 54167-2024")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 54167-2024 FSC-klagomål mail.docx", "A 54167-2024")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 54167-2024 tillsynsbegäran.docx", "A 54167-2024")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 54167-2024 tillsynsbegäran mail.docx", "A 54167-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 60875-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45999.55524305555</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>3</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Grönsångare
-Gulsparv
-Svinrot
-Gråkråka</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 60875-2025 artfynd.xlsx", "A 60875-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 60875-2025 karta.png", "A 60875-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 60875-2025 FSC-klagomål.docx", "A 60875-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 60875-2025 FSC-klagomål mail.docx", "A 60875-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 60875-2025 tillsynsbegäran.docx", "A 60875-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 60875-2025 tillsynsbegäran mail.docx", "A 60875-2025")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 60875-2025 prioriterade fågelarter.docx", "A 60875-2025")</f>
         <v/>
       </c>
     </row>
@@ -2142,7 +2142,7 @@
         <v>44467</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
         <v>45530.55440972222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2313,14 +2313,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 2864-2026</t>
+          <t>A 61963-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>46038</v>
+        <v>46003</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H20" t="n">
         <v>2</v>
@@ -2373,45 +2373,45 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 2864-2026 artfynd.xlsx", "A 2864-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 61963-2025 artfynd.xlsx", "A 61963-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 2864-2026 karta.png", "A 2864-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 61963-2025 karta.png", "A 61963-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 2864-2026 FSC-klagomål.docx", "A 2864-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 61963-2025 FSC-klagomål.docx", "A 61963-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 2864-2026 FSC-klagomål mail.docx", "A 2864-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 61963-2025 FSC-klagomål mail.docx", "A 61963-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 2864-2026 tillsynsbegäran.docx", "A 2864-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 61963-2025 tillsynsbegäran.docx", "A 61963-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 2864-2026 tillsynsbegäran mail.docx", "A 2864-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 61963-2025 tillsynsbegäran mail.docx", "A 61963-2025")</f>
         <v/>
       </c>
       <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 2864-2026 prioriterade fågelarter.docx", "A 2864-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 61963-2025 prioriterade fågelarter.docx", "A 61963-2025")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 61963-2025</t>
+          <t>A 2864-2026</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>46003</v>
+        <v>46038</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>2</v>
@@ -2464,31 +2464,31 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 61963-2025 artfynd.xlsx", "A 61963-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 2864-2026 artfynd.xlsx", "A 2864-2026")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 61963-2025 karta.png", "A 61963-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 2864-2026 karta.png", "A 2864-2026")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 61963-2025 FSC-klagomål.docx", "A 61963-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 2864-2026 FSC-klagomål.docx", "A 2864-2026")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 61963-2025 FSC-klagomål mail.docx", "A 61963-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 2864-2026 FSC-klagomål mail.docx", "A 2864-2026")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 61963-2025 tillsynsbegäran.docx", "A 61963-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 2864-2026 tillsynsbegäran.docx", "A 2864-2026")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 61963-2025 tillsynsbegäran mail.docx", "A 61963-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 2864-2026 tillsynsbegäran mail.docx", "A 2864-2026")</f>
         <v/>
       </c>
       <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 61963-2025 prioriterade fågelarter.docx", "A 61963-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 2864-2026 prioriterade fågelarter.docx", "A 2864-2026")</f>
         <v/>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
         <v>45267</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>45169</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45747</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>44470</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44460</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>45084</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3015,7 +3015,7 @@
         <v>45912.40270833333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>45912.40490740741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>45049</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         <v>44740</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3320,14 +3320,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 63676-2023</t>
+          <t>A 62183-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45275.64739583333</v>
+        <v>46006.5356712963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3377,14 +3377,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 13040-2024</t>
+          <t>A 5733-2026</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45385</v>
+        <v>46051.5745949074</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3434,14 +3434,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 13384-2023</t>
+          <t>A 63676-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45005</v>
+        <v>45275.64739583333</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3498,7 +3498,7 @@
         <v>45980.44351851852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3548,14 +3548,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 62183-2025</t>
+          <t>A 13040-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>46006.5356712963</v>
+        <v>45385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3605,14 +3605,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 5733-2026</t>
+          <t>A 13384-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>46051.5745949074</v>
+        <v>45005</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>44544</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z38"/>
+  <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45685.38047453704</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45177</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
         <v>44262</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>45475.67303240741</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>45062</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45254</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1404,14 +1404,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 8436-2021</t>
+          <t>A 24778-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44245</v>
+        <v>44728</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,16 +1424,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.4</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1442,116 +1442,21 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Lundalm
-Skogsalm
-Ask
-Grönsångare
-Mindre hackspett
-Hasselticka
-Rikfruktig blemlav</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 8436-2021 artfynd.xlsx", "A 8436-2021")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 8436-2021 karta.png", "A 8436-2021")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 8436-2021 FSC-klagomål.docx", "A 8436-2021")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 8436-2021 FSC-klagomål mail.docx", "A 8436-2021")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 8436-2021 tillsynsbegäran.docx", "A 8436-2021")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 8436-2021 tillsynsbegäran mail.docx", "A 8436-2021")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 8436-2021 prioriterade fågelarter.docx", "A 8436-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 24778-2022</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>44728</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>4</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>6</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Tofsäxing
 Flentimotej
@@ -1561,87 +1466,87 @@
 Murgröna</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 24778-2022 artfynd.xlsx", "A 24778-2022")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 24778-2022 karta.png", "A 24778-2022")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 24778-2022 FSC-klagomål.docx", "A 24778-2022")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 24778-2022 FSC-klagomål mail.docx", "A 24778-2022")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 24778-2022 tillsynsbegäran.docx", "A 24778-2022")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 24778-2022 tillsynsbegäran mail.docx", "A 24778-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 38039-2022</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>44811</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="C11" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>KALMAR LÄN</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>MÖRBYLÅNGA</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G11" t="n">
         <v>7.4</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
         <v>2</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>3</v>
       </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
         <v>6</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Ask
 Backtimjan
@@ -1651,87 +1556,87 @@
 Gullviva</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 38039-2022 artfynd.xlsx", "A 38039-2022")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 38039-2022 karta.png", "A 38039-2022")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 38039-2022 FSC-klagomål.docx", "A 38039-2022")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 38039-2022 FSC-klagomål mail.docx", "A 38039-2022")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 38039-2022 tillsynsbegäran.docx", "A 38039-2022")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 38039-2022 tillsynsbegäran mail.docx", "A 38039-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 27636-2023</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45097</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="C12" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>KALMAR LÄN</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>MÖRBYLÅNGA</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G12" t="n">
         <v>7.4</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H12" t="n">
         <v>2</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
         <v>2</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>3</v>
       </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
         <v>6</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Ask
 Backtimjan
@@ -1741,87 +1646,87 @@
 Gullviva</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 27636-2023 artfynd.xlsx", "A 27636-2023")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 27636-2023 karta.png", "A 27636-2023")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 27636-2023 FSC-klagomål.docx", "A 27636-2023")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 27636-2023 FSC-klagomål mail.docx", "A 27636-2023")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 27636-2023 tillsynsbegäran.docx", "A 27636-2023")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 27636-2023 tillsynsbegäran mail.docx", "A 27636-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 43714-2025</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>45912.40814814815</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="C13" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>KALMAR LÄN</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>MÖRBYLÅNGA</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G13" t="n">
         <v>7.9</v>
       </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
         <v>4</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>4</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>5</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Alvarsandbi
 Grönsångare
@@ -1830,91 +1735,91 @@
 Tibast</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43714-2025 artfynd.xlsx", "A 43714-2025")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43714-2025 karta.png", "A 43714-2025")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43714-2025 FSC-klagomål.docx", "A 43714-2025")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43714-2025 FSC-klagomål mail.docx", "A 43714-2025")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43714-2025 tillsynsbegäran.docx", "A 43714-2025")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43714-2025 tillsynsbegäran mail.docx", "A 43714-2025")</f>
         <v/>
       </c>
-      <c r="Z14">
+      <c r="Z13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 43714-2025 prioriterade fågelarter.docx", "A 43714-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 39320-2024</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>45551</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="C14" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>KALMAR LÄN</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>MÖRBYLÅNGA</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G14" t="n">
         <v>3.3</v>
       </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
         <v>2</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>2</v>
       </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
         <v>5</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Toppjungfrulin
 Korskovall
@@ -1923,91 +1828,91 @@
 Skogsduva</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 39320-2024 artfynd.xlsx", "A 39320-2024")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 39320-2024 karta.png", "A 39320-2024")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 39320-2024 FSC-klagomål.docx", "A 39320-2024")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 39320-2024 FSC-klagomål mail.docx", "A 39320-2024")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 39320-2024 tillsynsbegäran.docx", "A 39320-2024")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 39320-2024 tillsynsbegäran mail.docx", "A 39320-2024")</f>
         <v/>
       </c>
-      <c r="Z15">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 39320-2024 prioriterade fågelarter.docx", "A 39320-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 60875-2025</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>45999.55524305555</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="C15" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>KALMAR LÄN</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>MÖRBYLÅNGA</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G15" t="n">
         <v>2.1</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H15" t="n">
         <v>3</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>3</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>3</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>4</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Grönsångare
 Gulsparv
@@ -2015,91 +1920,91 @@
 Gråkråka</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 60875-2025 artfynd.xlsx", "A 60875-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 60875-2025 karta.png", "A 60875-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 60875-2025 FSC-klagomål.docx", "A 60875-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 60875-2025 FSC-klagomål mail.docx", "A 60875-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 60875-2025 tillsynsbegäran.docx", "A 60875-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 60875-2025 tillsynsbegäran mail.docx", "A 60875-2025")</f>
         <v/>
       </c>
-      <c r="Z16">
+      <c r="Z15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 60875-2025 prioriterade fågelarter.docx", "A 60875-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 54167-2024</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>45616.62196759259</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="C16" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>KALMAR LÄN</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>MÖRBYLÅNGA</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G16" t="n">
         <v>1.5</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H16" t="n">
         <v>2</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I16" t="n">
         <v>2</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
         <v>4</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Ask
 Murgröna
@@ -2107,42 +2012,133 @@
 Blåsippa</t>
         </is>
       </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 54167-2024 artfynd.xlsx", "A 54167-2024")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 54167-2024 karta.png", "A 54167-2024")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 54167-2024 FSC-klagomål.docx", "A 54167-2024")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 54167-2024 FSC-klagomål mail.docx", "A 54167-2024")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 54167-2024 tillsynsbegäran.docx", "A 54167-2024")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 54167-2024 tillsynsbegäran mail.docx", "A 54167-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 52906-2021</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>44467</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Gulsparv
+Rödvingetrast
+Lindspindling</t>
+        </is>
+      </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 54167-2024 artfynd.xlsx", "A 54167-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 52906-2021 artfynd.xlsx", "A 52906-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 54167-2024 karta.png", "A 54167-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 52906-2021 karta.png", "A 52906-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 54167-2024 FSC-klagomål.docx", "A 54167-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 52906-2021 FSC-klagomål.docx", "A 52906-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 54167-2024 FSC-klagomål mail.docx", "A 54167-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 52906-2021 FSC-klagomål mail.docx", "A 52906-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 54167-2024 tillsynsbegäran.docx", "A 54167-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 52906-2021 tillsynsbegäran.docx", "A 52906-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 54167-2024 tillsynsbegäran mail.docx", "A 54167-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 52906-2021 tillsynsbegäran mail.docx", "A 52906-2021")</f>
+        <v/>
+      </c>
+      <c r="Z17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 52906-2021 prioriterade fågelarter.docx", "A 52906-2021")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 52906-2021</t>
+          <t>A 35242-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44467</v>
+        <v>45530.55440972222</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2155,22 +2151,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
         <v>2</v>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2179,61 +2175,57 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
         <v>3</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Gulsparv
-Rödvingetrast
-Lindspindling</t>
+          <t>Ryl
+Grönpyrola
+Skogsknipprot</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 52906-2021 artfynd.xlsx", "A 52906-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 35242-2024 artfynd.xlsx", "A 35242-2024")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 52906-2021 karta.png", "A 52906-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 35242-2024 karta.png", "A 35242-2024")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 52906-2021 FSC-klagomål.docx", "A 52906-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 35242-2024 FSC-klagomål.docx", "A 35242-2024")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 52906-2021 FSC-klagomål mail.docx", "A 52906-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 35242-2024 FSC-klagomål mail.docx", "A 35242-2024")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 52906-2021 tillsynsbegäran.docx", "A 52906-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 35242-2024 tillsynsbegäran.docx", "A 35242-2024")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 52906-2021 tillsynsbegäran mail.docx", "A 52906-2021")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 52906-2021 prioriterade fågelarter.docx", "A 52906-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 35242-2024 tillsynsbegäran mail.docx", "A 35242-2024")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 35242-2024</t>
+          <t>A 2864-2026</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45530.55440972222</v>
+        <v>46038</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2246,22 +2238,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2273,40 +2265,44 @@
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>3</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Ryl
-Grönpyrola
-Skogsknipprot</t>
+          <t>Spillkråka
+Mindre märgborre
+Blåsippa</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 35242-2024 artfynd.xlsx", "A 35242-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 2864-2026 artfynd.xlsx", "A 2864-2026")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 35242-2024 karta.png", "A 35242-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 2864-2026 karta.png", "A 2864-2026")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 35242-2024 FSC-klagomål.docx", "A 35242-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 2864-2026 FSC-klagomål.docx", "A 2864-2026")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 35242-2024 FSC-klagomål mail.docx", "A 35242-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 2864-2026 FSC-klagomål mail.docx", "A 2864-2026")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 35242-2024 tillsynsbegäran.docx", "A 35242-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 2864-2026 tillsynsbegäran.docx", "A 2864-2026")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 35242-2024 tillsynsbegäran mail.docx", "A 35242-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 2864-2026 tillsynsbegäran mail.docx", "A 2864-2026")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 2864-2026 prioriterade fågelarter.docx", "A 2864-2026")</f>
         <v/>
       </c>
     </row>
@@ -2320,7 +2316,7 @@
         <v>46003</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2404,14 +2400,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 2864-2026</t>
+          <t>A 62231-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>46038</v>
+        <v>45267</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2424,85 +2420,80 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>2</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka
-Mindre märgborre
+          <t>Murgröna
 Blåsippa</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 2864-2026 artfynd.xlsx", "A 2864-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 62231-2023 artfynd.xlsx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 2864-2026 karta.png", "A 2864-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 62231-2023 karta.png", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 2864-2026 FSC-klagomål.docx", "A 2864-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 62231-2023 FSC-klagomål.docx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 2864-2026 FSC-klagomål mail.docx", "A 2864-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 62231-2023 FSC-klagomål mail.docx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 2864-2026 tillsynsbegäran.docx", "A 2864-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 62231-2023 tillsynsbegäran.docx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 2864-2026 tillsynsbegäran mail.docx", "A 2864-2026")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 2864-2026 prioriterade fågelarter.docx", "A 2864-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 62231-2023 tillsynsbegäran mail.docx", "A 62231-2023")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 62231-2023</t>
+          <t>A 40361-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45267</v>
+        <v>45169</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2515,16 +2506,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2533,62 +2524,62 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
         <v>2</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Murgröna
-Blåsippa</t>
+          <t>Lundalm
+Ängsskära</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 62231-2023 artfynd.xlsx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 40361-2023 artfynd.xlsx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 62231-2023 karta.png", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 40361-2023 karta.png", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 62231-2023 FSC-klagomål.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 40361-2023 FSC-klagomål.docx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 62231-2023 FSC-klagomål mail.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 40361-2023 FSC-klagomål mail.docx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 62231-2023 tillsynsbegäran.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 40361-2023 tillsynsbegäran.docx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 62231-2023 tillsynsbegäran mail.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 40361-2023 tillsynsbegäran mail.docx", "A 40361-2023")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 40361-2023</t>
+          <t>A 15600-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45169</v>
+        <v>45747</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2607,10 +2598,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2619,62 +2610,62 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>2</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Lundalm
-Ängsskära</t>
+          <t>Murgröna
+Scharlakansvårskål agg.</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 40361-2023 artfynd.xlsx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 15600-2025 artfynd.xlsx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 40361-2023 karta.png", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 15600-2025 karta.png", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 40361-2023 FSC-klagomål.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 15600-2025 FSC-klagomål.docx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 40361-2023 FSC-klagomål mail.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 15600-2025 FSC-klagomål mail.docx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 40361-2023 tillsynsbegäran.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 15600-2025 tillsynsbegäran.docx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 40361-2023 tillsynsbegäran mail.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 15600-2025 tillsynsbegäran mail.docx", "A 15600-2025")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 15600-2025</t>
+          <t>A 54192-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45747</v>
+        <v>44470</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2687,16 +2678,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2711,56 +2702,55 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Murgröna
-Scharlakansvårskål agg.</t>
+          <t>Sminkrot</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 15600-2025 artfynd.xlsx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 54192-2021 artfynd.xlsx", "A 54192-2021")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 15600-2025 karta.png", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 54192-2021 karta.png", "A 54192-2021")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 15600-2025 FSC-klagomål.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 54192-2021 FSC-klagomål.docx", "A 54192-2021")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 15600-2025 FSC-klagomål mail.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 54192-2021 FSC-klagomål mail.docx", "A 54192-2021")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 15600-2025 tillsynsbegäran.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 54192-2021 tillsynsbegäran.docx", "A 54192-2021")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 15600-2025 tillsynsbegäran mail.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 54192-2021 tillsynsbegäran mail.docx", "A 54192-2021")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 54192-2021</t>
+          <t>A 51244-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44470</v>
+        <v>44460</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2773,7 +2763,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2782,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -2800,52 +2790,52 @@
         <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Sminkrot</t>
+          <t>Stäppbandbi</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 54192-2021 artfynd.xlsx", "A 54192-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 51244-2021 artfynd.xlsx", "A 51244-2021")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 54192-2021 karta.png", "A 54192-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 51244-2021 karta.png", "A 51244-2021")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 54192-2021 FSC-klagomål.docx", "A 54192-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 51244-2021 FSC-klagomål.docx", "A 51244-2021")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 54192-2021 FSC-klagomål mail.docx", "A 54192-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 51244-2021 FSC-klagomål mail.docx", "A 51244-2021")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 54192-2021 tillsynsbegäran.docx", "A 54192-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 51244-2021 tillsynsbegäran.docx", "A 51244-2021")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 54192-2021 tillsynsbegäran mail.docx", "A 54192-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 51244-2021 tillsynsbegäran mail.docx", "A 51244-2021")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 51244-2021</t>
+          <t>A 24698-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44460</v>
+        <v>45084</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2858,13 +2848,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.9</v>
+        <v>5.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2873,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2882,55 +2872,55 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Stäppbandbi</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 51244-2021 artfynd.xlsx", "A 51244-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 24698-2023 artfynd.xlsx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 51244-2021 karta.png", "A 51244-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 24698-2023 karta.png", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 51244-2021 FSC-klagomål.docx", "A 51244-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 24698-2023 FSC-klagomål.docx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 51244-2021 FSC-klagomål mail.docx", "A 51244-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 24698-2023 FSC-klagomål mail.docx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 51244-2021 tillsynsbegäran.docx", "A 51244-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 24698-2023 tillsynsbegäran.docx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 51244-2021 tillsynsbegäran mail.docx", "A 51244-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 24698-2023 tillsynsbegäran mail.docx", "A 24698-2023")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 24698-2023</t>
+          <t>A 43702-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45084</v>
+        <v>45912.40270833333</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2943,7 +2933,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2981,41 +2971,41 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 24698-2023 artfynd.xlsx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43702-2025 artfynd.xlsx", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 24698-2023 karta.png", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43702-2025 karta.png", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 24698-2023 FSC-klagomål.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43702-2025 FSC-klagomål.docx", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 24698-2023 FSC-klagomål mail.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43702-2025 FSC-klagomål mail.docx", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 24698-2023 tillsynsbegäran.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43702-2025 tillsynsbegäran.docx", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 24698-2023 tillsynsbegäran mail.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43702-2025 tillsynsbegäran mail.docx", "A 43702-2025")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 43702-2025</t>
+          <t>A 43704-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45912.40270833333</v>
+        <v>45912.40490740741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3028,7 +3018,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -3062,45 +3052,45 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43702-2025 artfynd.xlsx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43704-2025 artfynd.xlsx", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43702-2025 karta.png", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43704-2025 karta.png", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43702-2025 FSC-klagomål.docx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43704-2025 FSC-klagomål.docx", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43702-2025 FSC-klagomål mail.docx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43704-2025 FSC-klagomål mail.docx", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43702-2025 tillsynsbegäran.docx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43704-2025 tillsynsbegäran.docx", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43702-2025 tillsynsbegäran mail.docx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43704-2025 tillsynsbegäran mail.docx", "A 43704-2025")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 43704-2025</t>
+          <t>A 19459-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45912.40490740741</v>
+        <v>45049</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3113,19 +3103,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -3137,55 +3127,55 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Luddvicker</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43704-2025 artfynd.xlsx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 19459-2023 artfynd.xlsx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43704-2025 karta.png", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 19459-2023 karta.png", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43704-2025 FSC-klagomål.docx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 19459-2023 FSC-klagomål.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43704-2025 FSC-klagomål mail.docx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 19459-2023 FSC-klagomål mail.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43704-2025 tillsynsbegäran.docx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 19459-2023 tillsynsbegäran.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43704-2025 tillsynsbegäran mail.docx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 19459-2023 tillsynsbegäran mail.docx", "A 19459-2023")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 19459-2023</t>
+          <t>A 26876-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45049</v>
+        <v>44740</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3198,7 +3188,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3210,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -3222,55 +3212,27 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>Luddvicker</t>
-        </is>
-      </c>
-      <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 19459-2023 artfynd.xlsx", "A 19459-2023")</f>
-        <v/>
-      </c>
-      <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 19459-2023 karta.png", "A 19459-2023")</f>
-        <v/>
-      </c>
-      <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 19459-2023 FSC-klagomål.docx", "A 19459-2023")</f>
-        <v/>
-      </c>
-      <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 19459-2023 FSC-klagomål mail.docx", "A 19459-2023")</f>
-        <v/>
-      </c>
-      <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 19459-2023 tillsynsbegäran.docx", "A 19459-2023")</f>
-        <v/>
-      </c>
-      <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 19459-2023 tillsynsbegäran mail.docx", "A 19459-2023")</f>
-        <v/>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R30" s="2" t="inlineStr"/>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 26876-2022</t>
+          <t>A 57407-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44740</v>
+        <v>45980.44351851852</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3283,7 +3245,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3320,14 +3282,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 62183-2025</t>
+          <t>A 63676-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>46006.5356712963</v>
+        <v>45275.64739583333</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3340,7 +3302,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3377,14 +3339,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 5733-2026</t>
+          <t>A 62183-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>46051.5745949074</v>
+        <v>46006.5356712963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3397,7 +3359,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3434,14 +3396,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 63676-2023</t>
+          <t>A 5733-2026</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45275.64739583333</v>
+        <v>46051.5745949074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3454,7 +3416,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3491,14 +3453,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 57407-2025</t>
+          <t>A 13040-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45980.44351851852</v>
+        <v>45385</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3511,7 +3473,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3548,14 +3510,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 13040-2024</t>
+          <t>A 13384-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45385</v>
+        <v>45005</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3568,7 +3530,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3602,17 +3564,17 @@
       </c>
       <c r="R36" s="2" t="inlineStr"/>
     </row>
-    <row r="37" ht="15" customHeight="1">
+    <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 13384-2023</t>
+          <t>A 72167-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45005</v>
+        <v>44544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3625,7 +3587,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3658,63 +3620,6 @@
         <v>0</v>
       </c>
       <c r="R37" s="2" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>A 72167-2021</t>
-        </is>
-      </c>
-      <c r="B38" s="1" t="n">
-        <v>44544</v>
-      </c>
-      <c r="C38" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -575,7 +575,7 @@
         <v>45685.38047453704</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45177</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
         <v>44262</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>45475.67303240741</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>45062</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45254</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44728</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1494,14 +1494,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 38039-2022</t>
+          <t>A 27636-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44811</v>
+        <v>45097</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1557,41 +1557,41 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 38039-2022 artfynd.xlsx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 27636-2023 artfynd.xlsx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 38039-2022 karta.png", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 27636-2023 karta.png", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 38039-2022 FSC-klagomål.docx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 27636-2023 FSC-klagomål.docx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 38039-2022 FSC-klagomål mail.docx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 27636-2023 FSC-klagomål mail.docx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 38039-2022 tillsynsbegäran.docx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 27636-2023 tillsynsbegäran.docx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 38039-2022 tillsynsbegäran mail.docx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 27636-2023 tillsynsbegäran mail.docx", "A 27636-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 27636-2023</t>
+          <t>A 38039-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45097</v>
+        <v>44811</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1647,27 +1647,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 27636-2023 artfynd.xlsx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 38039-2022 artfynd.xlsx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 27636-2023 karta.png", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 38039-2022 karta.png", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 27636-2023 FSC-klagomål.docx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 38039-2022 FSC-klagomål.docx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 27636-2023 FSC-klagomål mail.docx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 38039-2022 FSC-klagomål mail.docx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 27636-2023 tillsynsbegäran.docx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 38039-2022 tillsynsbegäran.docx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 27636-2023 tillsynsbegäran mail.docx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 38039-2022 tillsynsbegäran mail.docx", "A 38039-2022")</f>
         <v/>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
         <v>45912.40814814815</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45551</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45999.55524305555</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>45616.62196759259</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2131,14 +2131,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 35242-2024</t>
+          <t>A 2864-2026</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45530.55440972222</v>
+        <v>46038</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2151,22 +2151,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2178,236 +2178,236 @@
         <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>3</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Mindre märgborre
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 2864-2026 artfynd.xlsx", "A 2864-2026")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 2864-2026 karta.png", "A 2864-2026")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 2864-2026 FSC-klagomål.docx", "A 2864-2026")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 2864-2026 FSC-klagomål mail.docx", "A 2864-2026")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 2864-2026 tillsynsbegäran.docx", "A 2864-2026")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 2864-2026 tillsynsbegäran mail.docx", "A 2864-2026")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 2864-2026 prioriterade fågelarter.docx", "A 2864-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 61963-2025</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>46003</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Mindre märgborre
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 61963-2025 artfynd.xlsx", "A 61963-2025")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 61963-2025 karta.png", "A 61963-2025")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 61963-2025 FSC-klagomål.docx", "A 61963-2025")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 61963-2025 FSC-klagomål mail.docx", "A 61963-2025")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 61963-2025 tillsynsbegäran.docx", "A 61963-2025")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 61963-2025 tillsynsbegäran mail.docx", "A 61963-2025")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 61963-2025 prioriterade fågelarter.docx", "A 61963-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 35242-2024</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45530.55440972222</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Ryl
 Grönpyrola
 Skogsknipprot</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 35242-2024 artfynd.xlsx", "A 35242-2024")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 35242-2024 karta.png", "A 35242-2024")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 35242-2024 FSC-klagomål.docx", "A 35242-2024")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 35242-2024 FSC-klagomål mail.docx", "A 35242-2024")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 35242-2024 tillsynsbegäran.docx", "A 35242-2024")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 35242-2024 tillsynsbegäran mail.docx", "A 35242-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 2864-2026</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>46038</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Mindre märgborre
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 2864-2026 artfynd.xlsx", "A 2864-2026")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 2864-2026 karta.png", "A 2864-2026")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 2864-2026 FSC-klagomål.docx", "A 2864-2026")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 2864-2026 FSC-klagomål mail.docx", "A 2864-2026")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 2864-2026 tillsynsbegäran.docx", "A 2864-2026")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 2864-2026 tillsynsbegäran mail.docx", "A 2864-2026")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 2864-2026 prioriterade fågelarter.docx", "A 2864-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 61963-2025</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>46003</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Mindre märgborre
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 61963-2025 artfynd.xlsx", "A 61963-2025")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 61963-2025 karta.png", "A 61963-2025")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 61963-2025 FSC-klagomål.docx", "A 61963-2025")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 61963-2025 FSC-klagomål mail.docx", "A 61963-2025")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 61963-2025 tillsynsbegäran.docx", "A 61963-2025")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 61963-2025 tillsynsbegäran mail.docx", "A 61963-2025")</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 61963-2025 prioriterade fågelarter.docx", "A 61963-2025")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 62231-2023</t>
+          <t>A 15600-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45267</v>
+        <v>45747</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,13 +2420,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2455,45 +2455,45 @@
       <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Murgröna
-Blåsippa</t>
+Scharlakansvårskål agg.</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 62231-2023 artfynd.xlsx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 15600-2025 artfynd.xlsx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 62231-2023 karta.png", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 15600-2025 karta.png", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 62231-2023 FSC-klagomål.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 15600-2025 FSC-klagomål.docx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 62231-2023 FSC-klagomål mail.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 15600-2025 FSC-klagomål mail.docx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 62231-2023 tillsynsbegäran.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 15600-2025 tillsynsbegäran.docx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 62231-2023 tillsynsbegäran mail.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 15600-2025 tillsynsbegäran mail.docx", "A 15600-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 40361-2023</t>
+          <t>A 62231-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45169</v>
+        <v>45267</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2506,16 +2506,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2524,62 +2524,62 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>2</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Lundalm
-Ängsskära</t>
+          <t>Murgröna
+Blåsippa</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 40361-2023 artfynd.xlsx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 62231-2023 artfynd.xlsx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 40361-2023 karta.png", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 62231-2023 karta.png", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 40361-2023 FSC-klagomål.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 62231-2023 FSC-klagomål.docx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 40361-2023 FSC-klagomål mail.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 62231-2023 FSC-klagomål mail.docx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 40361-2023 tillsynsbegäran.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 62231-2023 tillsynsbegäran.docx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 40361-2023 tillsynsbegäran mail.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 62231-2023 tillsynsbegäran mail.docx", "A 62231-2023")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 15600-2025</t>
+          <t>A 40361-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45747</v>
+        <v>45169</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2598,60 +2598,60 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>2</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>2</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Murgröna
-Scharlakansvårskål agg.</t>
+          <t>Lundalm
+Ängsskära</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 15600-2025 artfynd.xlsx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 40361-2023 artfynd.xlsx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 15600-2025 karta.png", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 40361-2023 karta.png", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 15600-2025 FSC-klagomål.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 40361-2023 FSC-klagomål.docx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 15600-2025 FSC-klagomål mail.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 40361-2023 FSC-klagomål mail.docx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 15600-2025 tillsynsbegäran.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 40361-2023 tillsynsbegäran.docx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 15600-2025 tillsynsbegäran mail.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 40361-2023 tillsynsbegäran mail.docx", "A 40361-2023")</f>
         <v/>
       </c>
     </row>
@@ -2665,7 +2665,7 @@
         <v>44470</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>44460</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>45084</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>45912.40270833333</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>45912.40490740741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45049</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>44740</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3225,14 +3225,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 57407-2025</t>
+          <t>A 13040-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45980.44351851852</v>
+        <v>45385</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3282,14 +3282,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 63676-2023</t>
+          <t>A 13384-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45275.64739583333</v>
+        <v>45005</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3339,14 +3339,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 62183-2025</t>
+          <t>A 57407-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>46006.5356712963</v>
+        <v>45980.44351851852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3396,14 +3396,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 5733-2026</t>
+          <t>A 62183-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>46051.5745949074</v>
+        <v>46006.5356712963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3453,14 +3453,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 13040-2024</t>
+          <t>A 5733-2026</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45385</v>
+        <v>46051.5745949074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3510,14 +3510,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 13384-2023</t>
+          <t>A 63676-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45005</v>
+        <v>45275.64739583333</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>44544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -575,7 +575,7 @@
         <v>45685.38047453704</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45177</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
         <v>44262</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>45475.67303240741</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>45062</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45254</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44728</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1494,14 +1494,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 27636-2023</t>
+          <t>A 38039-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45097</v>
+        <v>44811</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1557,41 +1557,41 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 27636-2023 artfynd.xlsx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 38039-2022 artfynd.xlsx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 27636-2023 karta.png", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 38039-2022 karta.png", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 27636-2023 FSC-klagomål.docx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 38039-2022 FSC-klagomål.docx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 27636-2023 FSC-klagomål mail.docx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 38039-2022 FSC-klagomål mail.docx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 27636-2023 tillsynsbegäran.docx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 38039-2022 tillsynsbegäran.docx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 27636-2023 tillsynsbegäran mail.docx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 38039-2022 tillsynsbegäran mail.docx", "A 38039-2022")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 38039-2022</t>
+          <t>A 27636-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44811</v>
+        <v>45097</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1647,27 +1647,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 38039-2022 artfynd.xlsx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 27636-2023 artfynd.xlsx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 38039-2022 karta.png", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 27636-2023 karta.png", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 38039-2022 FSC-klagomål.docx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 27636-2023 FSC-klagomål.docx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 38039-2022 FSC-klagomål mail.docx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 27636-2023 FSC-klagomål mail.docx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 38039-2022 tillsynsbegäran.docx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 27636-2023 tillsynsbegäran.docx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 38039-2022 tillsynsbegäran mail.docx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 27636-2023 tillsynsbegäran mail.docx", "A 27636-2023")</f>
         <v/>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
         <v>45912.40814814815</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45551</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1860,14 +1860,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 60875-2025</t>
+          <t>A 54167-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45999.55524305555</v>
+        <v>45616.62196759259</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1904,15 +1904,103 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>4</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Murgröna
+Tvåblad
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 54167-2024 artfynd.xlsx", "A 54167-2024")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 54167-2024 karta.png", "A 54167-2024")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 54167-2024 FSC-klagomål.docx", "A 54167-2024")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 54167-2024 FSC-klagomål mail.docx", "A 54167-2024")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 54167-2024 tillsynsbegäran.docx", "A 54167-2024")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 54167-2024 tillsynsbegäran mail.docx", "A 54167-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 60875-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45999.55524305555</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Grönsångare
 Gulsparv
@@ -1920,120 +2008,32 @@
 Gråkråka</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 60875-2025 artfynd.xlsx", "A 60875-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 60875-2025 karta.png", "A 60875-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 60875-2025 FSC-klagomål.docx", "A 60875-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 60875-2025 FSC-klagomål mail.docx", "A 60875-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 60875-2025 tillsynsbegäran.docx", "A 60875-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 60875-2025 tillsynsbegäran mail.docx", "A 60875-2025")</f>
         <v/>
       </c>
-      <c r="Z15">
+      <c r="Z16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 60875-2025 prioriterade fågelarter.docx", "A 60875-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 54167-2024</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45616.62196759259</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Murgröna
-Tvåblad
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 54167-2024 artfynd.xlsx", "A 54167-2024")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 54167-2024 karta.png", "A 54167-2024")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 54167-2024 FSC-klagomål.docx", "A 54167-2024")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 54167-2024 FSC-klagomål mail.docx", "A 54167-2024")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 54167-2024 tillsynsbegäran.docx", "A 54167-2024")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 54167-2024 tillsynsbegäran mail.docx", "A 54167-2024")</f>
         <v/>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2131,14 +2131,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 2864-2026</t>
+          <t>A 35242-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>46038</v>
+        <v>45530.55440972222</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2151,22 +2151,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
         <v>2</v>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2178,236 +2178,236 @@
         <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
         <v>3</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Ryl
+Grönpyrola
+Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 35242-2024 artfynd.xlsx", "A 35242-2024")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 35242-2024 karta.png", "A 35242-2024")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 35242-2024 FSC-klagomål.docx", "A 35242-2024")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 35242-2024 FSC-klagomål mail.docx", "A 35242-2024")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 35242-2024 tillsynsbegäran.docx", "A 35242-2024")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 35242-2024 tillsynsbegäran mail.docx", "A 35242-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 2864-2026</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>46038</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Mindre märgborre
 Blåsippa</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 2864-2026 artfynd.xlsx", "A 2864-2026")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 2864-2026 karta.png", "A 2864-2026")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 2864-2026 FSC-klagomål.docx", "A 2864-2026")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 2864-2026 FSC-klagomål mail.docx", "A 2864-2026")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 2864-2026 tillsynsbegäran.docx", "A 2864-2026")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 2864-2026 tillsynsbegäran mail.docx", "A 2864-2026")</f>
         <v/>
       </c>
-      <c r="Z18">
+      <c r="Z19">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 2864-2026 prioriterade fågelarter.docx", "A 2864-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 61963-2025</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>46003</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="C20" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>KALMAR LÄN</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>MÖRBYLÅNGA</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="G20" t="n">
         <v>1.1</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>2</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>3</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Mindre märgborre
 Blåsippa</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 61963-2025 artfynd.xlsx", "A 61963-2025")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 61963-2025 karta.png", "A 61963-2025")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 61963-2025 FSC-klagomål.docx", "A 61963-2025")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 61963-2025 FSC-klagomål mail.docx", "A 61963-2025")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 61963-2025 tillsynsbegäran.docx", "A 61963-2025")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 61963-2025 tillsynsbegäran mail.docx", "A 61963-2025")</f>
         <v/>
       </c>
-      <c r="Z19">
+      <c r="Z20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 61963-2025 prioriterade fågelarter.docx", "A 61963-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 35242-2024</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45530.55440972222</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Ryl
-Grönpyrola
-Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 35242-2024 artfynd.xlsx", "A 35242-2024")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 35242-2024 karta.png", "A 35242-2024")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 35242-2024 FSC-klagomål.docx", "A 35242-2024")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 35242-2024 FSC-klagomål mail.docx", "A 35242-2024")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 35242-2024 tillsynsbegäran.docx", "A 35242-2024")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 35242-2024 tillsynsbegäran mail.docx", "A 35242-2024")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 15600-2025</t>
+          <t>A 62231-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45747</v>
+        <v>45267</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,13 +2420,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2455,45 +2455,45 @@
       <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Murgröna
-Scharlakansvårskål agg.</t>
+Blåsippa</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 15600-2025 artfynd.xlsx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 62231-2023 artfynd.xlsx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 15600-2025 karta.png", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 62231-2023 karta.png", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 15600-2025 FSC-klagomål.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 62231-2023 FSC-klagomål.docx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 15600-2025 FSC-klagomål mail.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 62231-2023 FSC-klagomål mail.docx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 15600-2025 tillsynsbegäran.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 62231-2023 tillsynsbegäran.docx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 15600-2025 tillsynsbegäran mail.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 62231-2023 tillsynsbegäran mail.docx", "A 62231-2023")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 62231-2023</t>
+          <t>A 40361-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45267</v>
+        <v>45169</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2506,16 +2506,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2524,62 +2524,62 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
         <v>2</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Murgröna
-Blåsippa</t>
+          <t>Lundalm
+Ängsskära</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 62231-2023 artfynd.xlsx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 40361-2023 artfynd.xlsx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 62231-2023 karta.png", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 40361-2023 karta.png", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 62231-2023 FSC-klagomål.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 40361-2023 FSC-klagomål.docx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 62231-2023 FSC-klagomål mail.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 40361-2023 FSC-klagomål mail.docx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 62231-2023 tillsynsbegäran.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 40361-2023 tillsynsbegäran.docx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 62231-2023 tillsynsbegäran mail.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 40361-2023 tillsynsbegäran mail.docx", "A 40361-2023")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 40361-2023</t>
+          <t>A 15600-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45169</v>
+        <v>45747</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2598,10 +2598,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2610,48 +2610,48 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>2</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Lundalm
-Ängsskära</t>
+          <t>Murgröna
+Scharlakansvårskål agg.</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 40361-2023 artfynd.xlsx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 15600-2025 artfynd.xlsx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 40361-2023 karta.png", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 15600-2025 karta.png", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 40361-2023 FSC-klagomål.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 15600-2025 FSC-klagomål.docx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 40361-2023 FSC-klagomål mail.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 15600-2025 FSC-klagomål mail.docx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 40361-2023 tillsynsbegäran.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 15600-2025 tillsynsbegäran.docx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 40361-2023 tillsynsbegäran mail.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 15600-2025 tillsynsbegäran mail.docx", "A 15600-2025")</f>
         <v/>
       </c>
     </row>
@@ -2665,7 +2665,7 @@
         <v>44470</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>44460</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2828,14 +2828,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 24698-2023</t>
+          <t>A 43702-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45084</v>
+        <v>45912.40270833333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2886,41 +2886,41 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 24698-2023 artfynd.xlsx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43702-2025 artfynd.xlsx", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 24698-2023 karta.png", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43702-2025 karta.png", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 24698-2023 FSC-klagomål.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43702-2025 FSC-klagomål.docx", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 24698-2023 FSC-klagomål mail.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43702-2025 FSC-klagomål mail.docx", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 24698-2023 tillsynsbegäran.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43702-2025 tillsynsbegäran.docx", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 24698-2023 tillsynsbegäran mail.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43702-2025 tillsynsbegäran mail.docx", "A 43702-2025")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 43702-2025</t>
+          <t>A 43704-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45912.40270833333</v>
+        <v>45912.40490740741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2967,45 +2967,45 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43702-2025 artfynd.xlsx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43704-2025 artfynd.xlsx", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43702-2025 karta.png", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43704-2025 karta.png", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43702-2025 FSC-klagomål.docx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43704-2025 FSC-klagomål.docx", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43702-2025 FSC-klagomål mail.docx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43704-2025 FSC-klagomål mail.docx", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43702-2025 tillsynsbegäran.docx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43704-2025 tillsynsbegäran.docx", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43702-2025 tillsynsbegäran mail.docx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43704-2025 tillsynsbegäran mail.docx", "A 43704-2025")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 43704-2025</t>
+          <t>A 19459-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45912.40490740741</v>
+        <v>45049</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3018,19 +3018,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -3042,55 +3042,55 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Luddvicker</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43704-2025 artfynd.xlsx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 19459-2023 artfynd.xlsx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43704-2025 karta.png", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 19459-2023 karta.png", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43704-2025 FSC-klagomål.docx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 19459-2023 FSC-klagomål.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43704-2025 FSC-klagomål mail.docx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 19459-2023 FSC-klagomål mail.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43704-2025 tillsynsbegäran.docx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 19459-2023 tillsynsbegäran.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43704-2025 tillsynsbegäran mail.docx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 19459-2023 tillsynsbegäran mail.docx", "A 19459-2023")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 19459-2023</t>
+          <t>A 24698-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45049</v>
+        <v>45084</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3103,19 +3103,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -3127,41 +3127,41 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Luddvicker</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 19459-2023 artfynd.xlsx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 24698-2023 artfynd.xlsx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 19459-2023 karta.png", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 24698-2023 karta.png", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 19459-2023 FSC-klagomål.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 24698-2023 FSC-klagomål.docx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 19459-2023 FSC-klagomål mail.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 24698-2023 FSC-klagomål mail.docx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 19459-2023 tillsynsbegäran.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 24698-2023 tillsynsbegäran.docx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 19459-2023 tillsynsbegäran mail.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 24698-2023 tillsynsbegäran mail.docx", "A 24698-2023")</f>
         <v/>
       </c>
     </row>
@@ -3175,7 +3175,7 @@
         <v>44740</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3225,14 +3225,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 13040-2024</t>
+          <t>A 63676-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45385</v>
+        <v>45275.64739583333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3282,14 +3282,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 13384-2023</t>
+          <t>A 57407-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45005</v>
+        <v>45980.44351851852</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3339,14 +3339,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 57407-2025</t>
+          <t>A 13040-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45980.44351851852</v>
+        <v>45385</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3396,14 +3396,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 62183-2025</t>
+          <t>A 13384-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>46006.5356712963</v>
+        <v>45005</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3453,14 +3453,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 5733-2026</t>
+          <t>A 62183-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>46051.5745949074</v>
+        <v>46006.5356712963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3510,14 +3510,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 63676-2023</t>
+          <t>A 5733-2026</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45275.64739583333</v>
+        <v>46051.5745949074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>44544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -575,7 +575,7 @@
         <v>45685.38047453704</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45177</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
         <v>44262</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>45475.67303240741</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>45062</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45254</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44728</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>44811</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>45097</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45912.40814814815</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45551</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45616.62196759259</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>45999.55524305555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>45530.55440972222</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>46038</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>46003</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45267</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>45169</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>45747</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44470</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>44460</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>45912.40270833333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>45912.40490740741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>45049</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45084</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>44740</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>45275.64739583333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>45980.44351851852</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>45385</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>45005</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>46006.5356712963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>46051.5745949074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -575,7 +575,7 @@
         <v>45685.38047453704</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45177</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
         <v>44262</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>45475.67303240741</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>45062</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45254</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44728</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>44811</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>45097</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45912.40814814815</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45551</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45616.62196759259</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>45999.55524305555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>45530.55440972222</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>46038</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>46003</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45267</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>45169</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>45747</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44470</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>44460</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>45912.40270833333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>45912.40490740741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>45049</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45084</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>44740</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>45275.64739583333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>45980.44351851852</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>45385</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>45005</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>46006.5356712963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>46051.5745949074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -575,7 +575,7 @@
         <v>45685.38047453704</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45177</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
         <v>44262</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,14 +914,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 21219-2023</t>
+          <t>A 27865-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45062</v>
+        <v>45475.67303240741</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,22 +934,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -958,15 +958,115 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>16</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Bergjohannesört
+Bredarun
+Klasefibbla
+Solvända
+Svart taggsvamp
+Vippärt
+Blå slemspindling
+Diskvaxskivling
+Fjällig taggsvamp s.str.
+Murgröna
+Nästrot
+Skogsknipprot
+Strävlosta
+Underviol
+Grönvit nattviol
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 27865-2024 artfynd.xlsx", "A 27865-2024")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 27865-2024 karta.png", "A 27865-2024")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 27865-2024 FSC-klagomål.docx", "A 27865-2024")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 27865-2024 FSC-klagomål mail.docx", "A 27865-2024")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 27865-2024 tillsynsbegäran.docx", "A 27865-2024")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 27865-2024 tillsynsbegäran mail.docx", "A 27865-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 21219-2023</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>16</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Ask
 Olivbrun spindling
@@ -986,128 +1086,28 @@
 Gullviva</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 21219-2023 artfynd.xlsx", "A 21219-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 21219-2023 karta.png", "A 21219-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 21219-2023 FSC-klagomål.docx", "A 21219-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 21219-2023 FSC-klagomål mail.docx", "A 21219-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 21219-2023 tillsynsbegäran.docx", "A 21219-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 21219-2023 tillsynsbegäran mail.docx", "A 21219-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 27865-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45475.67303240741</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>6</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>16</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Bergjohannesört
-Bredarun
-Klasefibbla
-Solvända
-Svart taggsvamp
-Vippärt
-Blå slemspindling
-Diskvaxskivling
-Fjällig taggsvamp s.str.
-Murgröna
-Nästrot
-Skogsknipprot
-Strävlosta
-Underviol
-Grönvit nattviol
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 27865-2024 artfynd.xlsx", "A 27865-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 27865-2024 karta.png", "A 27865-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 27865-2024 FSC-klagomål.docx", "A 27865-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 27865-2024 FSC-klagomål mail.docx", "A 27865-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 27865-2024 tillsynsbegäran.docx", "A 27865-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 27865-2024 tillsynsbegäran mail.docx", "A 27865-2024")</f>
         <v/>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
         <v>45062</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45254</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44728</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1494,14 +1494,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 38039-2022</t>
+          <t>A 27636-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44811</v>
+        <v>45097</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1557,41 +1557,41 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 38039-2022 artfynd.xlsx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 27636-2023 artfynd.xlsx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 38039-2022 karta.png", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 27636-2023 karta.png", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 38039-2022 FSC-klagomål.docx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 27636-2023 FSC-klagomål.docx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 38039-2022 FSC-klagomål mail.docx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 27636-2023 FSC-klagomål mail.docx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 38039-2022 tillsynsbegäran.docx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 27636-2023 tillsynsbegäran.docx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 38039-2022 tillsynsbegäran mail.docx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 27636-2023 tillsynsbegäran mail.docx", "A 27636-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 27636-2023</t>
+          <t>A 38039-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45097</v>
+        <v>44811</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1647,41 +1647,41 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 27636-2023 artfynd.xlsx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 38039-2022 artfynd.xlsx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 27636-2023 karta.png", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 38039-2022 karta.png", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 27636-2023 FSC-klagomål.docx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 38039-2022 FSC-klagomål.docx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 27636-2023 FSC-klagomål mail.docx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 38039-2022 FSC-klagomål mail.docx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 27636-2023 tillsynsbegäran.docx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 38039-2022 tillsynsbegäran.docx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 27636-2023 tillsynsbegäran mail.docx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 38039-2022 tillsynsbegäran mail.docx", "A 38039-2022")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 43714-2025</t>
+          <t>A 39320-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45912.40814814815</v>
+        <v>45551</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,19 +1694,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>7.9</v>
+        <v>3.3</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1718,15 +1718,108 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>5</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Toppjungfrulin
+Korskovall
+Underviol
+Vårärt
+Skogsduva</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 39320-2024 artfynd.xlsx", "A 39320-2024")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 39320-2024 karta.png", "A 39320-2024")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 39320-2024 FSC-klagomål.docx", "A 39320-2024")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 39320-2024 FSC-klagomål mail.docx", "A 39320-2024")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 39320-2024 tillsynsbegäran.docx", "A 39320-2024")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 39320-2024 tillsynsbegäran mail.docx", "A 39320-2024")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 39320-2024 prioriterade fågelarter.docx", "A 39320-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 43714-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45912.40814814815</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Alvarsandbi
 Grönsångare
@@ -1735,125 +1828,32 @@
 Tibast</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43714-2025 artfynd.xlsx", "A 43714-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43714-2025 karta.png", "A 43714-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43714-2025 FSC-klagomål.docx", "A 43714-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43714-2025 FSC-klagomål mail.docx", "A 43714-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43714-2025 tillsynsbegäran.docx", "A 43714-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43714-2025 tillsynsbegäran mail.docx", "A 43714-2025")</f>
         <v/>
       </c>
-      <c r="Z13">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 43714-2025 prioriterade fågelarter.docx", "A 43714-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 39320-2024</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45551</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Toppjungfrulin
-Korskovall
-Underviol
-Vårärt
-Skogsduva</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 39320-2024 artfynd.xlsx", "A 39320-2024")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 39320-2024 karta.png", "A 39320-2024")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 39320-2024 FSC-klagomål.docx", "A 39320-2024")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 39320-2024 FSC-klagomål mail.docx", "A 39320-2024")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 39320-2024 tillsynsbegäran.docx", "A 39320-2024")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 39320-2024 tillsynsbegäran mail.docx", "A 39320-2024")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 39320-2024 prioriterade fågelarter.docx", "A 39320-2024")</f>
         <v/>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
         <v>45616.62196759259</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>45999.55524305555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>45530.55440972222</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>46038</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>46003</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,14 +2400,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 62231-2023</t>
+          <t>A 15600-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45267</v>
+        <v>45747</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,13 +2420,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2455,45 +2455,45 @@
       <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Murgröna
-Blåsippa</t>
+Scharlakansvårskål agg.</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 62231-2023 artfynd.xlsx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 15600-2025 artfynd.xlsx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 62231-2023 karta.png", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 15600-2025 karta.png", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 62231-2023 FSC-klagomål.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 15600-2025 FSC-klagomål.docx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 62231-2023 FSC-klagomål mail.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 15600-2025 FSC-klagomål mail.docx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 62231-2023 tillsynsbegäran.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 15600-2025 tillsynsbegäran.docx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 62231-2023 tillsynsbegäran mail.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 15600-2025 tillsynsbegäran mail.docx", "A 15600-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 40361-2023</t>
+          <t>A 62231-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45169</v>
+        <v>45267</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2506,16 +2506,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2524,62 +2524,62 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>2</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Lundalm
-Ängsskära</t>
+          <t>Murgröna
+Blåsippa</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 40361-2023 artfynd.xlsx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 62231-2023 artfynd.xlsx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 40361-2023 karta.png", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 62231-2023 karta.png", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 40361-2023 FSC-klagomål.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 62231-2023 FSC-klagomål.docx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 40361-2023 FSC-klagomål mail.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 62231-2023 FSC-klagomål mail.docx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 40361-2023 tillsynsbegäran.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 62231-2023 tillsynsbegäran.docx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 40361-2023 tillsynsbegäran mail.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 62231-2023 tillsynsbegäran mail.docx", "A 62231-2023")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 15600-2025</t>
+          <t>A 40361-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45747</v>
+        <v>45169</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2598,60 +2598,60 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>2</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>2</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Murgröna
-Scharlakansvårskål agg.</t>
+          <t>Lundalm
+Ängsskära</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 15600-2025 artfynd.xlsx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 40361-2023 artfynd.xlsx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 15600-2025 karta.png", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 40361-2023 karta.png", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 15600-2025 FSC-klagomål.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 40361-2023 FSC-klagomål.docx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 15600-2025 FSC-klagomål mail.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 40361-2023 FSC-klagomål mail.docx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 15600-2025 tillsynsbegäran.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 40361-2023 tillsynsbegäran.docx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 15600-2025 tillsynsbegäran mail.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 40361-2023 tillsynsbegäran mail.docx", "A 40361-2023")</f>
         <v/>
       </c>
     </row>
@@ -2665,7 +2665,7 @@
         <v>44470</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>44460</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>45912.40270833333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>45912.40490740741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>45049</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45084</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>44740</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3225,14 +3225,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 63676-2023</t>
+          <t>A 13040-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45275.64739583333</v>
+        <v>45385</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3282,14 +3282,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 57407-2025</t>
+          <t>A 63676-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45980.44351851852</v>
+        <v>45275.64739583333</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3339,14 +3339,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 13040-2024</t>
+          <t>A 72167-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45385</v>
+        <v>44544</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3403,7 +3403,7 @@
         <v>45005</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3453,14 +3453,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 62183-2025</t>
+          <t>A 57407-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>46006.5356712963</v>
+        <v>45980.44351851852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3510,14 +3510,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 5733-2026</t>
+          <t>A 62183-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>46051.5745949074</v>
+        <v>46006.5356712963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3567,14 +3567,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 72167-2021</t>
+          <t>A 5733-2026</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44544</v>
+        <v>46051.5745949074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -575,7 +575,7 @@
         <v>45685.38047453704</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45177</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
         <v>44262</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,14 +914,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 27865-2024</t>
+          <t>A 21219-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45475.67303240741</v>
+        <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,22 +934,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -958,15 +958,115 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
         <v>16</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Olivbrun spindling
+Grov baronmossa
+Murgröna
+Nästrot
+Platt fjädermossa
+Purpurknipprot
+Skogsknipprot
+Strimspindling
+Sårläka
+Traslav
+Tvåblad
+Underviol
+Fläcknycklar
+Blåsippa
+Gullviva</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 21219-2023 artfynd.xlsx", "A 21219-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 21219-2023 karta.png", "A 21219-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 21219-2023 FSC-klagomål.docx", "A 21219-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 21219-2023 FSC-klagomål mail.docx", "A 21219-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 21219-2023 tillsynsbegäran.docx", "A 21219-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 21219-2023 tillsynsbegäran mail.docx", "A 21219-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 27865-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45475.67303240741</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>16</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Bergjohannesört
 Bredarun
@@ -986,128 +1086,28 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 27865-2024 artfynd.xlsx", "A 27865-2024")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 27865-2024 karta.png", "A 27865-2024")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 27865-2024 FSC-klagomål.docx", "A 27865-2024")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 27865-2024 FSC-klagomål mail.docx", "A 27865-2024")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 27865-2024 tillsynsbegäran.docx", "A 27865-2024")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 27865-2024 tillsynsbegäran mail.docx", "A 27865-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 21219-2023</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45062</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>16</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Olivbrun spindling
-Grov baronmossa
-Murgröna
-Nästrot
-Platt fjädermossa
-Purpurknipprot
-Skogsknipprot
-Strimspindling
-Sårläka
-Traslav
-Tvåblad
-Underviol
-Fläcknycklar
-Blåsippa
-Gullviva</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 21219-2023 artfynd.xlsx", "A 21219-2023")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 21219-2023 karta.png", "A 21219-2023")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 21219-2023 FSC-klagomål.docx", "A 21219-2023")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 21219-2023 FSC-klagomål mail.docx", "A 21219-2023")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 21219-2023 tillsynsbegäran.docx", "A 21219-2023")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 21219-2023 tillsynsbegäran mail.docx", "A 21219-2023")</f>
         <v/>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
         <v>45062</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45254</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44728</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1494,14 +1494,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 27636-2023</t>
+          <t>A 38039-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45097</v>
+        <v>44811</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1557,41 +1557,41 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 27636-2023 artfynd.xlsx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 38039-2022 artfynd.xlsx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 27636-2023 karta.png", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 38039-2022 karta.png", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 27636-2023 FSC-klagomål.docx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 38039-2022 FSC-klagomål.docx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 27636-2023 FSC-klagomål mail.docx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 38039-2022 FSC-klagomål mail.docx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 27636-2023 tillsynsbegäran.docx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 38039-2022 tillsynsbegäran.docx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 27636-2023 tillsynsbegäran mail.docx", "A 27636-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 38039-2022 tillsynsbegäran mail.docx", "A 38039-2022")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 38039-2022</t>
+          <t>A 27636-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44811</v>
+        <v>45097</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1647,41 +1647,41 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 38039-2022 artfynd.xlsx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 27636-2023 artfynd.xlsx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 38039-2022 karta.png", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 27636-2023 karta.png", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 38039-2022 FSC-klagomål.docx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 27636-2023 FSC-klagomål.docx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 38039-2022 FSC-klagomål mail.docx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 27636-2023 FSC-klagomål mail.docx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 38039-2022 tillsynsbegäran.docx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 27636-2023 tillsynsbegäran.docx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 38039-2022 tillsynsbegäran mail.docx", "A 38039-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 27636-2023 tillsynsbegäran mail.docx", "A 27636-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 39320-2024</t>
+          <t>A 43714-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45551</v>
+        <v>45912.40814814815</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,19 +1694,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.3</v>
+        <v>7.9</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1718,15 +1718,108 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>5</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Alvarsandbi
+Grönsångare
+Mindre bastardsvärmare
+Sexfläckig bastardsvärmare
+Tibast</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43714-2025 artfynd.xlsx", "A 43714-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43714-2025 karta.png", "A 43714-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43714-2025 FSC-klagomål.docx", "A 43714-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43714-2025 FSC-klagomål mail.docx", "A 43714-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43714-2025 tillsynsbegäran.docx", "A 43714-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43714-2025 tillsynsbegäran mail.docx", "A 43714-2025")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 43714-2025 prioriterade fågelarter.docx", "A 43714-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 39320-2024</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45551</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Toppjungfrulin
 Korskovall
@@ -1735,139 +1828,46 @@
 Skogsduva</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 39320-2024 artfynd.xlsx", "A 39320-2024")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 39320-2024 karta.png", "A 39320-2024")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 39320-2024 FSC-klagomål.docx", "A 39320-2024")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 39320-2024 FSC-klagomål mail.docx", "A 39320-2024")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 39320-2024 tillsynsbegäran.docx", "A 39320-2024")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 39320-2024 tillsynsbegäran mail.docx", "A 39320-2024")</f>
         <v/>
       </c>
-      <c r="Z13">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 39320-2024 prioriterade fågelarter.docx", "A 39320-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 43714-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45912.40814814815</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>4</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Alvarsandbi
-Grönsångare
-Mindre bastardsvärmare
-Sexfläckig bastardsvärmare
-Tibast</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43714-2025 artfynd.xlsx", "A 43714-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43714-2025 karta.png", "A 43714-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43714-2025 FSC-klagomål.docx", "A 43714-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43714-2025 FSC-klagomål mail.docx", "A 43714-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43714-2025 tillsynsbegäran.docx", "A 43714-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43714-2025 tillsynsbegäran mail.docx", "A 43714-2025")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 43714-2025 prioriterade fågelarter.docx", "A 43714-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 54167-2024</t>
+          <t>A 60875-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45616.62196759259</v>
+        <v>45999.55524305555</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1904,15 +1904,107 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>4</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Grönsångare
+Gulsparv
+Svinrot
+Gråkråka</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 60875-2025 artfynd.xlsx", "A 60875-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 60875-2025 karta.png", "A 60875-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 60875-2025 FSC-klagomål.docx", "A 60875-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 60875-2025 FSC-klagomål mail.docx", "A 60875-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 60875-2025 tillsynsbegäran.docx", "A 60875-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 60875-2025 tillsynsbegäran mail.docx", "A 60875-2025")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 60875-2025 prioriterade fågelarter.docx", "A 60875-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 54167-2024</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45616.62196759259</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Ask
 Murgröna
@@ -1920,120 +2012,28 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 54167-2024 artfynd.xlsx", "A 54167-2024")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 54167-2024 karta.png", "A 54167-2024")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 54167-2024 FSC-klagomål.docx", "A 54167-2024")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 54167-2024 FSC-klagomål mail.docx", "A 54167-2024")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 54167-2024 tillsynsbegäran.docx", "A 54167-2024")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 54167-2024 tillsynsbegäran mail.docx", "A 54167-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 60875-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45999.55524305555</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>3</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Grönsångare
-Gulsparv
-Svinrot
-Gråkråka</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 60875-2025 artfynd.xlsx", "A 60875-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 60875-2025 karta.png", "A 60875-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 60875-2025 FSC-klagomål.docx", "A 60875-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 60875-2025 FSC-klagomål mail.docx", "A 60875-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 60875-2025 tillsynsbegäran.docx", "A 60875-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 60875-2025 tillsynsbegäran mail.docx", "A 60875-2025")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 60875-2025 prioriterade fågelarter.docx", "A 60875-2025")</f>
         <v/>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>45530.55440972222</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>46038</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>46003</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,14 +2400,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 15600-2025</t>
+          <t>A 62231-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45747</v>
+        <v>45267</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,13 +2420,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2455,45 +2455,45 @@
       <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Murgröna
-Scharlakansvårskål agg.</t>
+Blåsippa</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 15600-2025 artfynd.xlsx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 62231-2023 artfynd.xlsx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 15600-2025 karta.png", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 62231-2023 karta.png", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 15600-2025 FSC-klagomål.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 62231-2023 FSC-klagomål.docx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 15600-2025 FSC-klagomål mail.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 62231-2023 FSC-klagomål mail.docx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 15600-2025 tillsynsbegäran.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 62231-2023 tillsynsbegäran.docx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 15600-2025 tillsynsbegäran mail.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 62231-2023 tillsynsbegäran mail.docx", "A 62231-2023")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 62231-2023</t>
+          <t>A 40361-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45267</v>
+        <v>45169</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2506,16 +2506,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2524,62 +2524,62 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
         <v>2</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Murgröna
-Blåsippa</t>
+          <t>Lundalm
+Ängsskära</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 62231-2023 artfynd.xlsx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 40361-2023 artfynd.xlsx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 62231-2023 karta.png", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 40361-2023 karta.png", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 62231-2023 FSC-klagomål.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 40361-2023 FSC-klagomål.docx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 62231-2023 FSC-klagomål mail.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 40361-2023 FSC-klagomål mail.docx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 62231-2023 tillsynsbegäran.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 40361-2023 tillsynsbegäran.docx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 62231-2023 tillsynsbegäran mail.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 40361-2023 tillsynsbegäran mail.docx", "A 40361-2023")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 40361-2023</t>
+          <t>A 15600-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45169</v>
+        <v>45747</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2598,10 +2598,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2610,48 +2610,48 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>2</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Lundalm
-Ängsskära</t>
+          <t>Murgröna
+Scharlakansvårskål agg.</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 40361-2023 artfynd.xlsx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 15600-2025 artfynd.xlsx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 40361-2023 karta.png", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 15600-2025 karta.png", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 40361-2023 FSC-klagomål.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 15600-2025 FSC-klagomål.docx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 40361-2023 FSC-klagomål mail.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 15600-2025 FSC-klagomål mail.docx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 40361-2023 tillsynsbegäran.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 15600-2025 tillsynsbegäran.docx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 40361-2023 tillsynsbegäran mail.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 15600-2025 tillsynsbegäran mail.docx", "A 15600-2025")</f>
         <v/>
       </c>
     </row>
@@ -2665,7 +2665,7 @@
         <v>44470</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>44460</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2828,14 +2828,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 43702-2025</t>
+          <t>A 24698-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45912.40270833333</v>
+        <v>45084</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2886,41 +2886,41 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43702-2025 artfynd.xlsx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 24698-2023 artfynd.xlsx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43702-2025 karta.png", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 24698-2023 karta.png", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43702-2025 FSC-klagomål.docx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 24698-2023 FSC-klagomål.docx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43702-2025 FSC-klagomål mail.docx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 24698-2023 FSC-klagomål mail.docx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43702-2025 tillsynsbegäran.docx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 24698-2023 tillsynsbegäran.docx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43702-2025 tillsynsbegäran mail.docx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 24698-2023 tillsynsbegäran mail.docx", "A 24698-2023")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 43704-2025</t>
+          <t>A 43702-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45912.40490740741</v>
+        <v>45912.40270833333</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2967,45 +2967,45 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43704-2025 artfynd.xlsx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43702-2025 artfynd.xlsx", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43704-2025 karta.png", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43702-2025 karta.png", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43704-2025 FSC-klagomål.docx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43702-2025 FSC-klagomål.docx", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43704-2025 FSC-klagomål mail.docx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43702-2025 FSC-klagomål mail.docx", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43704-2025 tillsynsbegäran.docx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43702-2025 tillsynsbegäran.docx", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43704-2025 tillsynsbegäran mail.docx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43702-2025 tillsynsbegäran mail.docx", "A 43702-2025")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 19459-2023</t>
+          <t>A 43704-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45049</v>
+        <v>45912.40490740741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3018,19 +3018,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -3042,55 +3042,55 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Luddvicker</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 19459-2023 artfynd.xlsx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43704-2025 artfynd.xlsx", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 19459-2023 karta.png", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43704-2025 karta.png", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 19459-2023 FSC-klagomål.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43704-2025 FSC-klagomål.docx", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 19459-2023 FSC-klagomål mail.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43704-2025 FSC-klagomål mail.docx", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 19459-2023 tillsynsbegäran.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43704-2025 tillsynsbegäran.docx", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 19459-2023 tillsynsbegäran mail.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43704-2025 tillsynsbegäran mail.docx", "A 43704-2025")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 24698-2023</t>
+          <t>A 19459-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45084</v>
+        <v>45049</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3103,19 +3103,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -3127,41 +3127,41 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Luddvicker</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 24698-2023 artfynd.xlsx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 19459-2023 artfynd.xlsx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 24698-2023 karta.png", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 19459-2023 karta.png", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 24698-2023 FSC-klagomål.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 19459-2023 FSC-klagomål.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 24698-2023 FSC-klagomål mail.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 19459-2023 FSC-klagomål mail.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 24698-2023 tillsynsbegäran.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 19459-2023 tillsynsbegäran.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 24698-2023 tillsynsbegäran mail.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 19459-2023 tillsynsbegäran mail.docx", "A 19459-2023")</f>
         <v/>
       </c>
     </row>
@@ -3175,7 +3175,7 @@
         <v>44740</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3225,14 +3225,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 13040-2024</t>
+          <t>A 63676-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45385</v>
+        <v>45275.64739583333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3282,14 +3282,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 63676-2023</t>
+          <t>A 57407-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45275.64739583333</v>
+        <v>45980.44351851852</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3339,14 +3339,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 72167-2021</t>
+          <t>A 13040-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44544</v>
+        <v>45385</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3403,7 +3403,7 @@
         <v>45005</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3453,14 +3453,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 57407-2025</t>
+          <t>A 62183-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45980.44351851852</v>
+        <v>46006.5356712963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3510,14 +3510,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 62183-2025</t>
+          <t>A 5733-2026</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>46006.5356712963</v>
+        <v>46051.5745949074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3567,14 +3567,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 5733-2026</t>
+          <t>A 72167-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>46051.5745949074</v>
+        <v>44544</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -575,7 +575,7 @@
         <v>45685.38047453704</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45177</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
         <v>44262</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,14 +914,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 21219-2023</t>
+          <t>A 27865-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45062</v>
+        <v>45475.67303240741</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,22 +934,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -958,15 +958,115 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>16</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Bergjohannesört
+Bredarun
+Klasefibbla
+Solvända
+Svart taggsvamp
+Vippärt
+Blå slemspindling
+Diskvaxskivling
+Fjällig taggsvamp s.str.
+Murgröna
+Nästrot
+Skogsknipprot
+Strävlosta
+Underviol
+Grönvit nattviol
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 27865-2024 artfynd.xlsx", "A 27865-2024")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 27865-2024 karta.png", "A 27865-2024")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 27865-2024 FSC-klagomål.docx", "A 27865-2024")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 27865-2024 FSC-klagomål mail.docx", "A 27865-2024")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 27865-2024 tillsynsbegäran.docx", "A 27865-2024")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 27865-2024 tillsynsbegäran mail.docx", "A 27865-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 21219-2023</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45062</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>16</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Ask
 Olivbrun spindling
@@ -986,128 +1086,28 @@
 Gullviva</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 21219-2023 artfynd.xlsx", "A 21219-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 21219-2023 karta.png", "A 21219-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 21219-2023 FSC-klagomål.docx", "A 21219-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 21219-2023 FSC-klagomål mail.docx", "A 21219-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 21219-2023 tillsynsbegäran.docx", "A 21219-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 21219-2023 tillsynsbegäran mail.docx", "A 21219-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 27865-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45475.67303240741</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>6</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>16</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Bergjohannesört
-Bredarun
-Klasefibbla
-Solvända
-Svart taggsvamp
-Vippärt
-Blå slemspindling
-Diskvaxskivling
-Fjällig taggsvamp s.str.
-Murgröna
-Nästrot
-Skogsknipprot
-Strävlosta
-Underviol
-Grönvit nattviol
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 27865-2024 artfynd.xlsx", "A 27865-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 27865-2024 karta.png", "A 27865-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 27865-2024 FSC-klagomål.docx", "A 27865-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 27865-2024 FSC-klagomål mail.docx", "A 27865-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 27865-2024 tillsynsbegäran.docx", "A 27865-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 27865-2024 tillsynsbegäran mail.docx", "A 27865-2024")</f>
         <v/>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
         <v>45062</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45254</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1404,14 +1404,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 24778-2022</t>
+          <t>A 27636-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44728</v>
+        <v>45097</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,31 +1424,31 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>7.4</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
         <v>2</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>4</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -1457,6 +1457,186 @@
         <v>6</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Backtimjan
+Solvända
+Murgröna
+Alvarmalört
+Gullviva</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 27636-2023 artfynd.xlsx", "A 27636-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 27636-2023 karta.png", "A 27636-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 27636-2023 FSC-klagomål.docx", "A 27636-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 27636-2023 FSC-klagomål mail.docx", "A 27636-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 27636-2023 tillsynsbegäran.docx", "A 27636-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 27636-2023 tillsynsbegäran mail.docx", "A 27636-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 38039-2022</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>44811</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>6</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Backtimjan
+Solvända
+Murgröna
+Alvarmalört
+Gullviva</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 38039-2022 artfynd.xlsx", "A 38039-2022")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 38039-2022 karta.png", "A 38039-2022")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 38039-2022 FSC-klagomål.docx", "A 38039-2022")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 38039-2022 FSC-klagomål mail.docx", "A 38039-2022")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 38039-2022 tillsynsbegäran.docx", "A 38039-2022")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 38039-2022 tillsynsbegäran mail.docx", "A 38039-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 24778-2022</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>44728</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Tofsäxing
 Flentimotej
@@ -1466,222 +1646,42 @@
 Murgröna</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 24778-2022 artfynd.xlsx", "A 24778-2022")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 24778-2022 karta.png", "A 24778-2022")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 24778-2022 FSC-klagomål.docx", "A 24778-2022")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 24778-2022 FSC-klagomål mail.docx", "A 24778-2022")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 24778-2022 tillsynsbegäran.docx", "A 24778-2022")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 24778-2022 tillsynsbegäran mail.docx", "A 24778-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 38039-2022</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>44811</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>3</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>6</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Backtimjan
-Solvända
-Murgröna
-Alvarmalört
-Gullviva</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 38039-2022 artfynd.xlsx", "A 38039-2022")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 38039-2022 karta.png", "A 38039-2022")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 38039-2022 FSC-klagomål.docx", "A 38039-2022")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 38039-2022 FSC-klagomål mail.docx", "A 38039-2022")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 38039-2022 tillsynsbegäran.docx", "A 38039-2022")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 38039-2022 tillsynsbegäran mail.docx", "A 38039-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 27636-2023</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45097</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>3</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>6</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Backtimjan
-Solvända
-Murgröna
-Alvarmalört
-Gullviva</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 27636-2023 artfynd.xlsx", "A 27636-2023")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 27636-2023 karta.png", "A 27636-2023")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 27636-2023 FSC-klagomål.docx", "A 27636-2023")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 27636-2023 FSC-klagomål mail.docx", "A 27636-2023")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 27636-2023 tillsynsbegäran.docx", "A 27636-2023")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 27636-2023 tillsynsbegäran mail.docx", "A 27636-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 43714-2025</t>
+          <t>A 39320-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45912.40814814815</v>
+        <v>45551</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,19 +1694,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>7.9</v>
+        <v>3.3</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1718,15 +1718,108 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>5</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Toppjungfrulin
+Korskovall
+Underviol
+Vårärt
+Skogsduva</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 39320-2024 artfynd.xlsx", "A 39320-2024")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 39320-2024 karta.png", "A 39320-2024")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 39320-2024 FSC-klagomål.docx", "A 39320-2024")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 39320-2024 FSC-klagomål mail.docx", "A 39320-2024")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 39320-2024 tillsynsbegäran.docx", "A 39320-2024")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 39320-2024 tillsynsbegäran mail.docx", "A 39320-2024")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 39320-2024 prioriterade fågelarter.docx", "A 39320-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 43714-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45912.40814814815</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Alvarsandbi
 Grönsångare
@@ -1735,139 +1828,46 @@
 Tibast</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43714-2025 artfynd.xlsx", "A 43714-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43714-2025 karta.png", "A 43714-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43714-2025 FSC-klagomål.docx", "A 43714-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43714-2025 FSC-klagomål mail.docx", "A 43714-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43714-2025 tillsynsbegäran.docx", "A 43714-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43714-2025 tillsynsbegäran mail.docx", "A 43714-2025")</f>
         <v/>
       </c>
-      <c r="Z13">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 43714-2025 prioriterade fågelarter.docx", "A 43714-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 39320-2024</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45551</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Toppjungfrulin
-Korskovall
-Underviol
-Vårärt
-Skogsduva</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 39320-2024 artfynd.xlsx", "A 39320-2024")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 39320-2024 karta.png", "A 39320-2024")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 39320-2024 FSC-klagomål.docx", "A 39320-2024")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 39320-2024 FSC-klagomål mail.docx", "A 39320-2024")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 39320-2024 tillsynsbegäran.docx", "A 39320-2024")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 39320-2024 tillsynsbegäran mail.docx", "A 39320-2024")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 39320-2024 prioriterade fågelarter.docx", "A 39320-2024")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 60875-2025</t>
+          <t>A 54167-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45999.55524305555</v>
+        <v>45616.62196759259</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1904,15 +1904,103 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>4</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Murgröna
+Tvåblad
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 54167-2024 artfynd.xlsx", "A 54167-2024")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 54167-2024 karta.png", "A 54167-2024")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 54167-2024 FSC-klagomål.docx", "A 54167-2024")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 54167-2024 FSC-klagomål mail.docx", "A 54167-2024")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 54167-2024 tillsynsbegäran.docx", "A 54167-2024")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 54167-2024 tillsynsbegäran mail.docx", "A 54167-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 60875-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45999.55524305555</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Grönsångare
 Gulsparv
@@ -1920,120 +2008,32 @@
 Gråkråka</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 60875-2025 artfynd.xlsx", "A 60875-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 60875-2025 karta.png", "A 60875-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 60875-2025 FSC-klagomål.docx", "A 60875-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 60875-2025 FSC-klagomål mail.docx", "A 60875-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 60875-2025 tillsynsbegäran.docx", "A 60875-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 60875-2025 tillsynsbegäran mail.docx", "A 60875-2025")</f>
         <v/>
       </c>
-      <c r="Z15">
+      <c r="Z16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 60875-2025 prioriterade fågelarter.docx", "A 60875-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 54167-2024</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45616.62196759259</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Murgröna
-Tvåblad
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 54167-2024 artfynd.xlsx", "A 54167-2024")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 54167-2024 karta.png", "A 54167-2024")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 54167-2024 FSC-klagomål.docx", "A 54167-2024")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 54167-2024 FSC-klagomål mail.docx", "A 54167-2024")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 54167-2024 tillsynsbegäran.docx", "A 54167-2024")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 54167-2024 tillsynsbegäran mail.docx", "A 54167-2024")</f>
         <v/>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>45530.55440972222</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>46038</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>46003</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,14 +2400,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 62231-2023</t>
+          <t>A 40361-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45267</v>
+        <v>45169</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2420,16 +2420,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2438,62 +2438,62 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
         <v>2</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Murgröna
-Blåsippa</t>
+          <t>Lundalm
+Ängsskära</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 62231-2023 artfynd.xlsx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 40361-2023 artfynd.xlsx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 62231-2023 karta.png", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 40361-2023 karta.png", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 62231-2023 FSC-klagomål.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 40361-2023 FSC-klagomål.docx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 62231-2023 FSC-klagomål mail.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 40361-2023 FSC-klagomål mail.docx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 62231-2023 tillsynsbegäran.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 40361-2023 tillsynsbegäran.docx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 62231-2023 tillsynsbegäran mail.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 40361-2023 tillsynsbegäran mail.docx", "A 40361-2023")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 40361-2023</t>
+          <t>A 15600-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45169</v>
+        <v>45747</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2512,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2524,62 +2524,62 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>2</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Lundalm
-Ängsskära</t>
+          <t>Murgröna
+Scharlakansvårskål agg.</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 40361-2023 artfynd.xlsx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 15600-2025 artfynd.xlsx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 40361-2023 karta.png", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 15600-2025 karta.png", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 40361-2023 FSC-klagomål.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 15600-2025 FSC-klagomål.docx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 40361-2023 FSC-klagomål mail.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 15600-2025 FSC-klagomål mail.docx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 40361-2023 tillsynsbegäran.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 15600-2025 tillsynsbegäran.docx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 40361-2023 tillsynsbegäran mail.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 15600-2025 tillsynsbegäran mail.docx", "A 15600-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 15600-2025</t>
+          <t>A 62231-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45747</v>
+        <v>45267</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2592,13 +2592,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2627,31 +2627,31 @@
       <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Murgröna
-Scharlakansvårskål agg.</t>
+Blåsippa</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 15600-2025 artfynd.xlsx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 62231-2023 artfynd.xlsx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 15600-2025 karta.png", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 62231-2023 karta.png", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 15600-2025 FSC-klagomål.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 62231-2023 FSC-klagomål.docx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 15600-2025 FSC-klagomål mail.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 62231-2023 FSC-klagomål mail.docx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 15600-2025 tillsynsbegäran.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 62231-2023 tillsynsbegäran.docx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 15600-2025 tillsynsbegäran mail.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 62231-2023 tillsynsbegäran mail.docx", "A 62231-2023")</f>
         <v/>
       </c>
     </row>
@@ -2665,7 +2665,7 @@
         <v>44470</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>44460</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2828,14 +2828,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 24698-2023</t>
+          <t>A 19459-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45084</v>
+        <v>45049</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2848,19 +2848,19 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2872,41 +2872,41 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Luddvicker</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 24698-2023 artfynd.xlsx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 19459-2023 artfynd.xlsx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 24698-2023 karta.png", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 19459-2023 karta.png", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 24698-2023 FSC-klagomål.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 19459-2023 FSC-klagomål.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 24698-2023 FSC-klagomål mail.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 19459-2023 FSC-klagomål mail.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 24698-2023 tillsynsbegäran.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 19459-2023 tillsynsbegäran.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 24698-2023 tillsynsbegäran mail.docx", "A 24698-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 19459-2023 tillsynsbegäran mail.docx", "A 19459-2023")</f>
         <v/>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
         <v>45912.40270833333</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>45912.40490740741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3083,14 +3083,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 19459-2023</t>
+          <t>A 24698-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45049</v>
+        <v>45084</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3103,19 +3103,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -3127,41 +3127,41 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Luddvicker</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 19459-2023 artfynd.xlsx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 24698-2023 artfynd.xlsx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 19459-2023 karta.png", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 24698-2023 karta.png", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 19459-2023 FSC-klagomål.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 24698-2023 FSC-klagomål.docx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 19459-2023 FSC-klagomål mail.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 24698-2023 FSC-klagomål mail.docx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 19459-2023 tillsynsbegäran.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 24698-2023 tillsynsbegäran.docx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 19459-2023 tillsynsbegäran mail.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 24698-2023 tillsynsbegäran mail.docx", "A 24698-2023")</f>
         <v/>
       </c>
     </row>
@@ -3175,7 +3175,7 @@
         <v>44740</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3225,14 +3225,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 63676-2023</t>
+          <t>A 13040-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45275.64739583333</v>
+        <v>45385</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3282,14 +3282,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 57407-2025</t>
+          <t>A 13384-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45980.44351851852</v>
+        <v>45005</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3339,14 +3339,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 13040-2024</t>
+          <t>A 63676-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45385</v>
+        <v>45275.64739583333</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3396,14 +3396,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 13384-2023</t>
+          <t>A 72167-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45005</v>
+        <v>44544</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3453,14 +3453,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 62183-2025</t>
+          <t>A 57407-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>46006.5356712963</v>
+        <v>45980.44351851852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3510,14 +3510,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 5733-2026</t>
+          <t>A 62183-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>46051.5745949074</v>
+        <v>46006.5356712963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3567,14 +3567,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 72167-2021</t>
+          <t>A 5733-2026</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44544</v>
+        <v>46051.5745949074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -575,7 +575,7 @@
         <v>45685.38047453704</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45177</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
         <v>44262</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,14 +914,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 27865-2024</t>
+          <t>A 21219-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45475.67303240741</v>
+        <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,22 +934,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -958,15 +958,115 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
         <v>16</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Olivbrun spindling
+Grov baronmossa
+Murgröna
+Nästrot
+Platt fjädermossa
+Purpurknipprot
+Skogsknipprot
+Strimspindling
+Sårläka
+Traslav
+Tvåblad
+Underviol
+Fläcknycklar
+Blåsippa
+Gullviva</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 21219-2023 artfynd.xlsx", "A 21219-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 21219-2023 karta.png", "A 21219-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 21219-2023 FSC-klagomål.docx", "A 21219-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 21219-2023 FSC-klagomål mail.docx", "A 21219-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 21219-2023 tillsynsbegäran.docx", "A 21219-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 21219-2023 tillsynsbegäran mail.docx", "A 21219-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 27865-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45475.67303240741</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>16</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Bergjohannesört
 Bredarun
@@ -986,128 +1086,28 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 27865-2024 artfynd.xlsx", "A 27865-2024")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 27865-2024 karta.png", "A 27865-2024")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 27865-2024 FSC-klagomål.docx", "A 27865-2024")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 27865-2024 FSC-klagomål mail.docx", "A 27865-2024")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 27865-2024 tillsynsbegäran.docx", "A 27865-2024")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 27865-2024 tillsynsbegäran mail.docx", "A 27865-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 21219-2023</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45062</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>16</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Olivbrun spindling
-Grov baronmossa
-Murgröna
-Nästrot
-Platt fjädermossa
-Purpurknipprot
-Skogsknipprot
-Strimspindling
-Sårläka
-Traslav
-Tvåblad
-Underviol
-Fläcknycklar
-Blåsippa
-Gullviva</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 21219-2023 artfynd.xlsx", "A 21219-2023")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 21219-2023 karta.png", "A 21219-2023")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 21219-2023 FSC-klagomål.docx", "A 21219-2023")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 21219-2023 FSC-klagomål mail.docx", "A 21219-2023")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 21219-2023 tillsynsbegäran.docx", "A 21219-2023")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 21219-2023 tillsynsbegäran mail.docx", "A 21219-2023")</f>
         <v/>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
         <v>45062</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45254</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1404,14 +1404,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 27636-2023</t>
+          <t>A 24778-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45097</v>
+        <v>44728</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,16 +1424,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>7.4</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>2</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -1457,6 +1457,96 @@
         <v>6</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Tofsäxing
+Flentimotej
+Poppeltofsskivling
+Slåtterfibbla
+Kalktallört
+Murgröna</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 24778-2022 artfynd.xlsx", "A 24778-2022")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 24778-2022 karta.png", "A 24778-2022")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 24778-2022 FSC-klagomål.docx", "A 24778-2022")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 24778-2022 FSC-klagomål mail.docx", "A 24778-2022")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 24778-2022 tillsynsbegäran.docx", "A 24778-2022")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 24778-2022 tillsynsbegäran mail.docx", "A 24778-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 27636-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45097</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>6</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Ask
 Backtimjan
@@ -1466,87 +1556,87 @@
 Gullviva</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 27636-2023 artfynd.xlsx", "A 27636-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 27636-2023 karta.png", "A 27636-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 27636-2023 FSC-klagomål.docx", "A 27636-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 27636-2023 FSC-klagomål mail.docx", "A 27636-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 27636-2023 tillsynsbegäran.docx", "A 27636-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 27636-2023 tillsynsbegäran mail.docx", "A 27636-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 38039-2022</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>44811</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="C12" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>KALMAR LÄN</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>MÖRBYLÅNGA</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G12" t="n">
         <v>7.4</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>2</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
         <v>2</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>3</v>
       </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
         <v>6</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Ask
 Backtimjan
@@ -1556,118 +1646,28 @@
 Gullviva</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 38039-2022 artfynd.xlsx", "A 38039-2022")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 38039-2022 karta.png", "A 38039-2022")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 38039-2022 FSC-klagomål.docx", "A 38039-2022")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 38039-2022 FSC-klagomål mail.docx", "A 38039-2022")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 38039-2022 tillsynsbegäran.docx", "A 38039-2022")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 38039-2022 tillsynsbegäran mail.docx", "A 38039-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 24778-2022</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>44728</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>4</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>6</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Tofsäxing
-Flentimotej
-Poppeltofsskivling
-Slåtterfibbla
-Kalktallört
-Murgröna</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 24778-2022 artfynd.xlsx", "A 24778-2022")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 24778-2022 karta.png", "A 24778-2022")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 24778-2022 FSC-klagomål.docx", "A 24778-2022")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 24778-2022 FSC-klagomål mail.docx", "A 24778-2022")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 24778-2022 tillsynsbegäran.docx", "A 24778-2022")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 24778-2022 tillsynsbegäran mail.docx", "A 24778-2022")</f>
         <v/>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
         <v>45551</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45912.40814814815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45616.62196759259</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>45999.55524305555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2131,14 +2131,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 35242-2024</t>
+          <t>A 2864-2026</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45530.55440972222</v>
+        <v>46038</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2151,22 +2151,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2178,236 +2178,236 @@
         <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>3</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Mindre märgborre
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 2864-2026 artfynd.xlsx", "A 2864-2026")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 2864-2026 karta.png", "A 2864-2026")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 2864-2026 FSC-klagomål.docx", "A 2864-2026")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 2864-2026 FSC-klagomål mail.docx", "A 2864-2026")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 2864-2026 tillsynsbegäran.docx", "A 2864-2026")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 2864-2026 tillsynsbegäran mail.docx", "A 2864-2026")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 2864-2026 prioriterade fågelarter.docx", "A 2864-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 61963-2025</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>46003</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Mindre märgborre
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 61963-2025 artfynd.xlsx", "A 61963-2025")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 61963-2025 karta.png", "A 61963-2025")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 61963-2025 FSC-klagomål.docx", "A 61963-2025")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 61963-2025 FSC-klagomål mail.docx", "A 61963-2025")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 61963-2025 tillsynsbegäran.docx", "A 61963-2025")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 61963-2025 tillsynsbegäran mail.docx", "A 61963-2025")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 61963-2025 prioriterade fågelarter.docx", "A 61963-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 35242-2024</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45530.55440972222</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Ryl
 Grönpyrola
 Skogsknipprot</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 35242-2024 artfynd.xlsx", "A 35242-2024")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 35242-2024 karta.png", "A 35242-2024")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 35242-2024 FSC-klagomål.docx", "A 35242-2024")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 35242-2024 FSC-klagomål mail.docx", "A 35242-2024")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 35242-2024 tillsynsbegäran.docx", "A 35242-2024")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 35242-2024 tillsynsbegäran mail.docx", "A 35242-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 2864-2026</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>46038</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Mindre märgborre
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 2864-2026 artfynd.xlsx", "A 2864-2026")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 2864-2026 karta.png", "A 2864-2026")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 2864-2026 FSC-klagomål.docx", "A 2864-2026")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 2864-2026 FSC-klagomål mail.docx", "A 2864-2026")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 2864-2026 tillsynsbegäran.docx", "A 2864-2026")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 2864-2026 tillsynsbegäran mail.docx", "A 2864-2026")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 2864-2026 prioriterade fågelarter.docx", "A 2864-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 61963-2025</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>46003</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Mindre märgborre
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 61963-2025 artfynd.xlsx", "A 61963-2025")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 61963-2025 karta.png", "A 61963-2025")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 61963-2025 FSC-klagomål.docx", "A 61963-2025")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 61963-2025 FSC-klagomål mail.docx", "A 61963-2025")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 61963-2025 tillsynsbegäran.docx", "A 61963-2025")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 61963-2025 tillsynsbegäran mail.docx", "A 61963-2025")</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/fåglar/A 61963-2025 prioriterade fågelarter.docx", "A 61963-2025")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 40361-2023</t>
+          <t>A 15600-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45169</v>
+        <v>45747</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2426,10 +2426,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2438,62 +2438,62 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>2</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Lundalm
-Ängsskära</t>
+          <t>Murgröna
+Scharlakansvårskål agg.</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 40361-2023 artfynd.xlsx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 15600-2025 artfynd.xlsx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 40361-2023 karta.png", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 15600-2025 karta.png", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 40361-2023 FSC-klagomål.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 15600-2025 FSC-klagomål.docx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 40361-2023 FSC-klagomål mail.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 15600-2025 FSC-klagomål mail.docx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 40361-2023 tillsynsbegäran.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 15600-2025 tillsynsbegäran.docx", "A 15600-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 40361-2023 tillsynsbegäran mail.docx", "A 40361-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 15600-2025 tillsynsbegäran mail.docx", "A 15600-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 15600-2025</t>
+          <t>A 62231-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45747</v>
+        <v>45267</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2506,13 +2506,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2541,45 +2541,45 @@
       <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Murgröna
-Scharlakansvårskål agg.</t>
+Blåsippa</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 15600-2025 artfynd.xlsx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 62231-2023 artfynd.xlsx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 15600-2025 karta.png", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 62231-2023 karta.png", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 15600-2025 FSC-klagomål.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 62231-2023 FSC-klagomål.docx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 15600-2025 FSC-klagomål mail.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 62231-2023 FSC-klagomål mail.docx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 15600-2025 tillsynsbegäran.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 62231-2023 tillsynsbegäran.docx", "A 62231-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 15600-2025 tillsynsbegäran mail.docx", "A 15600-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 62231-2023 tillsynsbegäran mail.docx", "A 62231-2023")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 62231-2023</t>
+          <t>A 40361-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45267</v>
+        <v>45169</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2592,16 +2592,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2610,48 +2610,48 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>2</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Murgröna
-Blåsippa</t>
+          <t>Lundalm
+Ängsskära</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 62231-2023 artfynd.xlsx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 40361-2023 artfynd.xlsx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 62231-2023 karta.png", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 40361-2023 karta.png", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 62231-2023 FSC-klagomål.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 40361-2023 FSC-klagomål.docx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 62231-2023 FSC-klagomål mail.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 40361-2023 FSC-klagomål mail.docx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 62231-2023 tillsynsbegäran.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 40361-2023 tillsynsbegäran.docx", "A 40361-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 62231-2023 tillsynsbegäran mail.docx", "A 62231-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 40361-2023 tillsynsbegäran mail.docx", "A 40361-2023")</f>
         <v/>
       </c>
     </row>
@@ -2665,7 +2665,7 @@
         <v>44470</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>44460</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2828,14 +2828,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 19459-2023</t>
+          <t>A 43702-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45049</v>
+        <v>45912.40270833333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2848,19 +2848,19 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2872,55 +2872,55 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Luddvicker</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 19459-2023 artfynd.xlsx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43702-2025 artfynd.xlsx", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 19459-2023 karta.png", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43702-2025 karta.png", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 19459-2023 FSC-klagomål.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43702-2025 FSC-klagomål.docx", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 19459-2023 FSC-klagomål mail.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43702-2025 FSC-klagomål mail.docx", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 19459-2023 tillsynsbegäran.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43702-2025 tillsynsbegäran.docx", "A 43702-2025")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 19459-2023 tillsynsbegäran mail.docx", "A 19459-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43702-2025 tillsynsbegäran mail.docx", "A 43702-2025")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 43702-2025</t>
+          <t>A 43704-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45912.40270833333</v>
+        <v>45912.40490740741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2967,45 +2967,45 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43702-2025 artfynd.xlsx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43704-2025 artfynd.xlsx", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43702-2025 karta.png", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43704-2025 karta.png", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43702-2025 FSC-klagomål.docx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43704-2025 FSC-klagomål.docx", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43702-2025 FSC-klagomål mail.docx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43704-2025 FSC-klagomål mail.docx", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43702-2025 tillsynsbegäran.docx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43704-2025 tillsynsbegäran.docx", "A 43704-2025")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43702-2025 tillsynsbegäran mail.docx", "A 43702-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43704-2025 tillsynsbegäran mail.docx", "A 43704-2025")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 43704-2025</t>
+          <t>A 19459-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45912.40490740741</v>
+        <v>45049</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3018,19 +3018,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -3042,41 +3042,41 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Luddvicker</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 43704-2025 artfynd.xlsx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/artfynd/A 19459-2023 artfynd.xlsx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 43704-2025 karta.png", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/kartor/A 19459-2023 karta.png", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 43704-2025 FSC-klagomål.docx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomål/A 19459-2023 FSC-klagomål.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 43704-2025 FSC-klagomål mail.docx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/klagomålsmail/A 19459-2023 FSC-klagomål mail.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 43704-2025 tillsynsbegäran.docx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsyn/A 19459-2023 tillsynsbegäran.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 43704-2025 tillsynsbegäran mail.docx", "A 43704-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0840/tillsynsmail/A 19459-2023 tillsynsbegäran mail.docx", "A 19459-2023")</f>
         <v/>
       </c>
     </row>
@@ -3090,7 +3090,7 @@
         <v>45084</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>44740</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>45385</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>45005</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>45275.64739583333</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44544</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>45980.44351851852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>46006.5356712963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>46051.5745949074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -575,7 +575,7 @@
         <v>45685.38047453704</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>45177</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
         <v>44262</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>45062</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>45475.67303240741</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>45062</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45254</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>44508</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>44728</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>45097</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>44811</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45551</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45912.40814814815</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>45616.62196759259</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>45999.55524305555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>46038</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>46003</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>45530.55440972222</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45747</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>45267</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         <v>45169</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>44470</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>44460</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>45912.40270833333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>45912.40490740741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>45049</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45084</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>44740</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>45385</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>45005</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>45275.64739583333</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44544</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>45980.44351851852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>46006.5356712963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>46051.5745949074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
